--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_0_10.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_0_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>373609.6494672063</v>
+        <v>268277.9841761547</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2114249.189782367</v>
+        <v>925399.3994514376</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19492207.609564</v>
+        <v>18327015.93006067</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5116643.000488906</v>
+        <v>5764008.847562066</v>
       </c>
     </row>
     <row r="11">
@@ -703,22 +703,22 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>26.92232807701203</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>44.13217237922859</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V2" t="n">
-        <v>44.13217237922859</v>
+        <v>90.38893773807641</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -737,28 +737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>81.82639095666916</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>38.12502610536669</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -800,7 +800,7 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -858,16 +858,16 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0.7904504476822691</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -904,19 +904,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F5" t="n">
-        <v>16.93162886246722</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -943,7 +943,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>40.47627913313517</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="6">
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -992,10 +992,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>38.12502610536669</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>44.13217237922859</v>
+        <v>56.17030901074575</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1031,19 +1031,19 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1095,16 +1095,16 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0.7904504476822691</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>44.13217237922859</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1144,16 +1144,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>16.93162886246722</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -1180,16 +1180,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>58.39471844666277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="9">
@@ -1223,16 +1223,16 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>38.12502610536668</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1265,19 +1265,19 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>29.05241763862484</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1308,16 +1308,16 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0.790450447682262</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1378,13 +1378,13 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>40.47627913313517</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1393,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1417,7 +1417,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1426,19 +1426,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>28.88091821707973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1460,16 +1460,16 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>38.12502610536668</v>
+        <v>111.0299893707267</v>
       </c>
       <c r="G12" t="n">
-        <v>44.13217237922859</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>44.13217237922859</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -1508,10 +1508,10 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0.790450447682262</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1618,7 +1618,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1630,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1654,22 +1654,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>28.88091821707974</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>44.13217237922859</v>
+        <v>190.3453970742849</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1688,22 +1688,22 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>52.0628898883872</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1733,22 +1733,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>38.87161743162455</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1782,16 +1782,16 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>22.65313100102799</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1855,16 +1855,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>230.8744955960827</v>
+        <v>90.38893773807641</v>
       </c>
       <c r="G17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -1888,16 +1888,16 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1931,22 +1931,22 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>46.85186398604318</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1970,13 +1970,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>225.9413820809748</v>
@@ -1985,7 +1985,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>4.580549094716531</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2046,16 +2046,16 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T19" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2080,73 +2080,73 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>200.3360962888297</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D20" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R20" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>52.42556848774752</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2162,25 +2162,25 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>45.28887413297245</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>122.5899586056058</v>
       </c>
       <c r="H21" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -2216,13 +2216,13 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -2241,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2332,10 +2332,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2362,7 +2362,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -2371,13 +2371,13 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>241.0142888776591</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="W23" t="n">
         <v>241.0142888776591</v>
@@ -2396,16 +2396,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2417,10 +2417,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>49.23554341427957</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -2453,16 +2453,16 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>135.4141600157168</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2478,52 +2478,52 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2560,7 +2560,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2569,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2578,7 +2578,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2605,22 +2605,22 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>241.0142888776591</v>
+        <v>72.47049842454879</v>
       </c>
       <c r="W26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>52.42556848774763</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2642,7 +2642,7 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -2657,7 +2657,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>104.954515658907</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -2693,7 +2693,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>241.0142888776591</v>
@@ -2702,7 +2702,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>29.05241763862477</v>
       </c>
     </row>
     <row r="28">
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2781,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2794,25 +2794,25 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
       <c r="H29" t="n">
-        <v>81.0053776549329</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>11.94928935461252</v>
@@ -2836,10 +2836,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2851,13 +2851,13 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>190.3453970742849</v>
       </c>
       <c r="W29" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2873,7 +2873,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2885,10 +2885,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2924,22 +2924,22 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>211.18782352337</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>130.0843554087448</v>
       </c>
       <c r="W30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -3040,55 +3040,55 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>102.3382270926889</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R32" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S32" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T32" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G32" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>212.285385643442</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
       <c r="V32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3107,7 +3107,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -3125,13 +3125,13 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>4.089654531614567</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -3164,10 +3164,10 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>56.17030901074575</v>
       </c>
       <c r="W33" t="n">
         <v>241.0142888776591</v>
@@ -3231,10 +3231,10 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3274,17 +3274,17 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F35" t="n">
+      <c r="H35" t="n">
         <v>212.2853856434421</v>
       </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
@@ -3322,7 +3322,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3395,10 +3395,10 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>29.8892983910557</v>
       </c>
       <c r="U36" t="n">
         <v>225.9413820809748</v>
@@ -3407,13 +3407,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>104.7383832473596</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3483,10 +3483,10 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3511,7 +3511,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>241.0142888776591</v>
@@ -3520,7 +3520,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H38" t="n">
-        <v>212.2853856434421</v>
+        <v>70.34400780127524</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3547,16 +3547,16 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3584,13 +3584,13 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>71.85152283581253</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3605,7 +3605,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3629,28 +3629,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>49.3111039422953</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3739,11 +3739,11 @@
         </is>
       </c>
       <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C41" t="n">
-        <v>0</v>
-      </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
@@ -3751,7 +3751,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>11.19305615617957</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3805,10 +3805,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>202.2946864288972</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3827,22 +3827,22 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.1746589509483</v>
       </c>
       <c r="F42" t="n">
-        <v>71.77253124562357</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3872,7 +3872,7 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -3881,10 +3881,10 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -3909,7 +3909,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3976,31 +3976,31 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C44" t="n">
-        <v>0</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>100.3796369526212</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4024,13 +4024,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4039,13 +4039,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4112,7 +4112,7 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4124,7 +4124,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>29.79900896488263</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -4194,10 +4194,10 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="W46" t="n">
-        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.60056303742164</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="C2" t="n">
-        <v>15.60056303742164</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D2" t="n">
-        <v>15.60056303742164</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E2" t="n">
-        <v>15.60056303742164</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F2" t="n">
-        <v>15.60056303742164</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G2" t="n">
-        <v>15.60056303742164</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H2" t="n">
-        <v>15.60056303742164</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I2" t="n">
-        <v>15.60056303742164</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K2" t="n">
-        <v>47.22142444577459</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L2" t="n">
-        <v>90.91227510121089</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M2" t="n">
-        <v>134.6031257566472</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N2" t="n">
-        <v>176.5286895169144</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O2" t="n">
-        <v>176.5286895169144</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P2" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>176.5286895169144</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>176.5286895169144</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S2" t="n">
-        <v>149.3344187320537</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T2" t="n">
-        <v>104.756466833843</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U2" t="n">
-        <v>60.17851493563234</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V2" t="n">
-        <v>15.60056303742164</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="W2" t="n">
-        <v>15.60056303742164</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="X2" t="n">
-        <v>15.60056303742164</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="Y2" t="n">
-        <v>15.60056303742164</v>
+        <v>31.35113235729608</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>87.37278572049297</v>
+        <v>547.1910343172051</v>
       </c>
       <c r="C3" t="n">
-        <v>87.37278572049297</v>
+        <v>547.1910343172051</v>
       </c>
       <c r="D3" t="n">
-        <v>87.37278572049297</v>
+        <v>464.5381141589534</v>
       </c>
       <c r="E3" t="n">
-        <v>87.37278572049297</v>
+        <v>305.3006591534979</v>
       </c>
       <c r="F3" t="n">
-        <v>87.37278572049297</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G3" t="n">
-        <v>87.37278572049297</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H3" t="n">
-        <v>48.8626583413347</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I3" t="n">
-        <v>4.284706443124001</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J3" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>3.530573790338288</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>3.530573790338288</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M3" t="n">
-        <v>3.530573790338288</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N3" t="n">
-        <v>45.45613755060546</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O3" t="n">
-        <v>89.14698820604177</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
-        <v>132.8378388614781</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>131.9507376187037</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>131.9507376187037</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T3" t="n">
-        <v>131.9507376187037</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U3" t="n">
-        <v>131.9507376187037</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V3" t="n">
-        <v>131.9507376187037</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W3" t="n">
-        <v>131.9507376187037</v>
+        <v>547.1910343172051</v>
       </c>
       <c r="X3" t="n">
-        <v>131.9507376187037</v>
+        <v>547.1910343172051</v>
       </c>
       <c r="Y3" t="n">
-        <v>131.9507376187037</v>
+        <v>547.1910343172051</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L4" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M4" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N4" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O4" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>137.2644294849704</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.68647758675968</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>48.10852568854899</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>166.4370741486873</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C5" t="n">
-        <v>166.4370741486873</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D5" t="n">
-        <v>166.4370741486873</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E5" t="n">
-        <v>166.4370741486873</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F5" t="n">
-        <v>149.3344187320537</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G5" t="n">
-        <v>104.756466833843</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H5" t="n">
-        <v>60.17851493563234</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I5" t="n">
-        <v>15.60056303742164</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K5" t="n">
-        <v>3.530573790338288</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L5" t="n">
-        <v>47.22142444577459</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M5" t="n">
-        <v>90.91227510121089</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N5" t="n">
-        <v>134.6031257566472</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O5" t="n">
-        <v>176.5286895169144</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P5" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>166.4370741486873</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>166.4370741486873</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>166.4370741486873</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T5" t="n">
-        <v>166.4370741486873</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U5" t="n">
-        <v>166.4370741486873</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V5" t="n">
-        <v>166.4370741486873</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W5" t="n">
-        <v>166.4370741486873</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X5" t="n">
-        <v>166.4370741486873</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="Y5" t="n">
-        <v>166.4370741486873</v>
+        <v>518.2486856454962</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>87.37278572049297</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C6" t="n">
-        <v>87.37278572049297</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D6" t="n">
-        <v>87.37278572049297</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E6" t="n">
-        <v>87.37278572049297</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F6" t="n">
-        <v>87.37278572049297</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G6" t="n">
-        <v>87.37278572049297</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H6" t="n">
-        <v>48.8626583413347</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
-        <v>4.284706443124001</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>3.530573790338288</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>3.530573790338288</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>45.45613755060546</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>45.45613755060546</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O6" t="n">
-        <v>89.14698820604177</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P6" t="n">
-        <v>132.8378388614781</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>131.9507376187037</v>
+        <v>907.3194696411961</v>
       </c>
       <c r="S6" t="n">
-        <v>131.9507376187037</v>
+        <v>907.3194696411961</v>
       </c>
       <c r="T6" t="n">
-        <v>131.9507376187037</v>
+        <v>907.3194696411961</v>
       </c>
       <c r="U6" t="n">
-        <v>131.9507376187037</v>
+        <v>679.0958513775852</v>
       </c>
       <c r="V6" t="n">
-        <v>131.9507376187037</v>
+        <v>679.0958513775852</v>
       </c>
       <c r="W6" t="n">
-        <v>131.9507376187037</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="X6" t="n">
-        <v>131.9507376187037</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y6" t="n">
-        <v>131.9507376187037</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L7" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M7" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N7" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O7" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>137.2644294849704</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.68647758675968</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>48.10852568854899</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>166.4370741486873</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="C8" t="n">
-        <v>166.4370741486873</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D8" t="n">
-        <v>166.4370741486873</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E8" t="n">
-        <v>166.4370741486873</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F8" t="n">
-        <v>149.3344187320537</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G8" t="n">
-        <v>104.756466833843</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H8" t="n">
-        <v>60.17851493563234</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I8" t="n">
-        <v>15.60056303742164</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K8" t="n">
-        <v>3.530573790338288</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L8" t="n">
-        <v>47.22142444577459</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M8" t="n">
-        <v>90.91227510121089</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N8" t="n">
-        <v>132.8378388614781</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O8" t="n">
-        <v>176.5286895169144</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P8" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>166.4370741486873</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>166.4370741486873</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>166.4370741486873</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T8" t="n">
-        <v>166.4370741486873</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U8" t="n">
-        <v>166.4370741486873</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="V8" t="n">
-        <v>166.4370741486873</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="W8" t="n">
-        <v>166.4370741486873</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="X8" t="n">
-        <v>166.4370741486873</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="Y8" t="n">
-        <v>166.4370741486873</v>
+        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>176.5286895169144</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C9" t="n">
-        <v>176.5286895169144</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D9" t="n">
-        <v>176.5286895169144</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E9" t="n">
-        <v>176.5286895169144</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F9" t="n">
-        <v>138.0185621377561</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G9" t="n">
-        <v>93.44061023954541</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H9" t="n">
-        <v>48.8626583413347</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I9" t="n">
-        <v>4.284706443124001</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>3.530573790338288</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>47.22142444577459</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>90.91227510121089</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N9" t="n">
-        <v>90.91227510121089</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O9" t="n">
-        <v>90.91227510121089</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P9" t="n">
-        <v>132.8378388614781</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>176.5286895169144</v>
+        <v>934.7112791079849</v>
       </c>
       <c r="U9" t="n">
-        <v>176.5286895169144</v>
+        <v>706.487660844374</v>
       </c>
       <c r="V9" t="n">
-        <v>176.5286895169144</v>
+        <v>471.3355526126313</v>
       </c>
       <c r="W9" t="n">
-        <v>176.5286895169144</v>
+        <v>227.8867759685313</v>
       </c>
       <c r="X9" t="n">
-        <v>176.5286895169144</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y9" t="n">
-        <v>176.5286895169144</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>93.48491238239833</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>48.90696048418764</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>4.329008585976936</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L10" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M10" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N10" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.530573790338288</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="C11" t="n">
-        <v>3.530573790338288</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="D11" t="n">
-        <v>3.530573790338288</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="E11" t="n">
-        <v>3.530573790338288</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="F11" t="n">
-        <v>3.530573790338288</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G11" t="n">
-        <v>3.530573790338288</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H11" t="n">
-        <v>3.530573790338288</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I11" t="n">
-        <v>3.530573790338288</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J11" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K11" t="n">
-        <v>47.22142444577459</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L11" t="n">
-        <v>89.14698820604177</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M11" t="n">
-        <v>89.14698820604177</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N11" t="n">
-        <v>89.14698820604177</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O11" t="n">
-        <v>132.8378388614781</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P11" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>166.4370741486873</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R11" t="n">
-        <v>166.4370741486873</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S11" t="n">
-        <v>166.4370741486873</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T11" t="n">
-        <v>166.4370741486873</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U11" t="n">
-        <v>121.8591222504766</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V11" t="n">
-        <v>77.28117035226589</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W11" t="n">
-        <v>77.28117035226589</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X11" t="n">
-        <v>32.70321845405519</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y11" t="n">
-        <v>3.530573790338288</v>
+        <v>802.5825927271064</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>176.5286895169144</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="C12" t="n">
-        <v>176.5286895169144</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="D12" t="n">
-        <v>176.5286895169144</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="E12" t="n">
-        <v>176.5286895169144</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="F12" t="n">
-        <v>138.0185621377561</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G12" t="n">
-        <v>93.44061023954541</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H12" t="n">
-        <v>48.8626583413347</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I12" t="n">
-        <v>4.284706443124001</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J12" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>3.530573790338288</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L12" t="n">
-        <v>3.530573790338288</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M12" t="n">
-        <v>45.45613755060546</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N12" t="n">
-        <v>45.45613755060546</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O12" t="n">
-        <v>89.14698820604177</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P12" t="n">
-        <v>132.8378388614781</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q12" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>176.5286895169144</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S12" t="n">
-        <v>176.5286895169144</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T12" t="n">
-        <v>176.5286895169144</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U12" t="n">
-        <v>176.5286895169144</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V12" t="n">
-        <v>176.5286895169144</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W12" t="n">
-        <v>176.5286895169144</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="X12" t="n">
-        <v>176.5286895169144</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="Y12" t="n">
-        <v>176.5286895169144</v>
+        <v>384.2867411876791</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L13" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M13" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N13" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O13" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P13" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q13" t="n">
-        <v>93.48491238239833</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R13" t="n">
-        <v>48.90696048418764</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S13" t="n">
-        <v>4.329008585976936</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T13" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.530573790338288</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C14" t="n">
-        <v>3.530573790338288</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D14" t="n">
-        <v>3.530573790338288</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E14" t="n">
-        <v>3.530573790338288</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F14" t="n">
-        <v>3.530573790338288</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G14" t="n">
-        <v>3.530573790338288</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H14" t="n">
-        <v>3.530573790338288</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I14" t="n">
-        <v>3.530573790338288</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J14" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K14" t="n">
-        <v>3.530573790338288</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L14" t="n">
-        <v>47.22142444577459</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M14" t="n">
-        <v>47.22142444577459</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N14" t="n">
-        <v>90.91227510121089</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O14" t="n">
-        <v>134.6031257566472</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P14" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>166.4370741486873</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R14" t="n">
-        <v>137.2644294849704</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S14" t="n">
-        <v>92.68647758675968</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T14" t="n">
-        <v>48.10852568854899</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U14" t="n">
-        <v>3.530573790338288</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="V14" t="n">
-        <v>3.530573790338288</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="W14" t="n">
-        <v>3.530573790338288</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="X14" t="n">
-        <v>3.530573790338288</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="Y14" t="n">
-        <v>3.530573790338288</v>
+        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3.530573790338288</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="C15" t="n">
-        <v>3.530573790338288</v>
+        <v>566.8500717543842</v>
       </c>
       <c r="D15" t="n">
-        <v>3.530573790338288</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="E15" t="n">
-        <v>3.530573790338288</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="F15" t="n">
-        <v>3.530573790338288</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G15" t="n">
-        <v>3.530573790338288</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H15" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I15" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J15" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>47.22142444577459</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L15" t="n">
-        <v>90.91227510121089</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M15" t="n">
-        <v>90.91227510121089</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N15" t="n">
-        <v>90.91227510121089</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O15" t="n">
-        <v>134.6031257566472</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P15" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q15" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>176.5286895169144</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S15" t="n">
-        <v>137.2644294849704</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T15" t="n">
-        <v>92.68647758675968</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U15" t="n">
-        <v>48.10852568854899</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V15" t="n">
-        <v>3.530573790338288</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W15" t="n">
-        <v>3.530573790338288</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="X15" t="n">
-        <v>3.530573790338288</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="Y15" t="n">
-        <v>3.530573790338288</v>
+        <v>619.4388494194218</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C16" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D16" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E16" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F16" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G16" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H16" t="n">
-        <v>115.1809137745201</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I16" t="n">
-        <v>70.60296187630945</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J16" t="n">
-        <v>26.02500997809875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L16" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M16" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N16" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O16" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P16" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q16" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R16" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S16" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T16" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U16" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V16" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W16" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X16" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y16" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>964.0571555106362</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="C17" t="n">
-        <v>964.0571555106362</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="D17" t="n">
-        <v>964.0571555106362</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="E17" t="n">
-        <v>964.0571555106362</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="F17" t="n">
-        <v>730.8505943024719</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G17" t="n">
-        <v>487.4018176583718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H17" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I17" t="n">
         <v>31.35113235729608</v>
@@ -5536,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S17" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T17" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U17" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V17" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="W17" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="X17" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="Y17" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
     </row>
     <row r="18">
@@ -5570,28 +5570,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>19.28114311021272</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="C18" t="n">
-        <v>19.28114311021272</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="D18" t="n">
-        <v>19.28114311021272</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="E18" t="n">
-        <v>19.28114311021272</v>
+        <v>279.9389693285341</v>
       </c>
       <c r="F18" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="G18" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
@@ -5600,46 +5600,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>234.810827406191</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N18" t="n">
-        <v>473.4149733950735</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O18" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P18" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T18" t="n">
-        <v>487.2836868729568</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U18" t="n">
-        <v>259.0600686093459</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V18" t="n">
-        <v>23.90796037760316</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="W18" t="n">
-        <v>19.28114311021272</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="X18" t="n">
-        <v>19.28114311021272</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="Y18" t="n">
-        <v>19.28114311021272</v>
+        <v>327.2640844659515</v>
       </c>
     </row>
     <row r="19">
@@ -5694,13 +5694,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q19" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T19" t="n">
         <v>19.28114311021272</v>
@@ -5728,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>761.6974622895962</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C20" t="n">
-        <v>761.6974622895962</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D20" t="n">
-        <v>518.2486856454962</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E20" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F20" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5773,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T20" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U20" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V20" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W20" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X20" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y20" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="21">
@@ -5807,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>862.8876260635219</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="C21" t="n">
-        <v>817.1412885554689</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="D21" t="n">
-        <v>668.2068788942177</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="E21" t="n">
-        <v>508.9694238887622</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="F21" t="n">
-        <v>362.4348659156472</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="G21" t="n">
-        <v>223.7040404982626</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H21" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I21" t="n">
         <v>20.03527576299844</v>
@@ -5834,16 +5834,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
+        <v>374.6018090363993</v>
+      </c>
+      <c r="N21" t="n">
         <v>473.4149733950735</v>
-      </c>
-      <c r="N21" t="n">
-        <v>712.019119383956</v>
       </c>
       <c r="O21" t="n">
         <v>712.019119383956</v>
@@ -5855,28 +5855,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U21" t="n">
-        <v>862.8876260635219</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V21" t="n">
-        <v>862.8876260635219</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W21" t="n">
-        <v>862.8876260635219</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X21" t="n">
-        <v>862.8876260635219</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="Y21" t="n">
-        <v>862.8876260635219</v>
+        <v>257.2326523711826</v>
       </c>
     </row>
     <row r="22">
@@ -5886,7 +5886,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C22" t="n">
         <v>19.28114311021272</v>
@@ -5937,25 +5937,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C23" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D23" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E23" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H23" t="n">
         <v>19.28114311021272</v>
@@ -6010,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T23" t="n">
+        <v>953.9655401424092</v>
+      </c>
+      <c r="U23" t="n">
+        <v>953.9655401424092</v>
+      </c>
+      <c r="V23" t="n">
         <v>749.627473042513</v>
       </c>
-      <c r="U23" t="n">
+      <c r="W23" t="n">
         <v>506.1786963984129</v>
       </c>
-      <c r="V23" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="W23" t="n">
-        <v>19.28114311021272</v>
-      </c>
       <c r="X23" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y23" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="24">
@@ -6044,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>552.3930418464681</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C24" t="n">
-        <v>377.9400125653411</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
-        <v>229.0056029040899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
-        <v>69.76814789863437</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
-        <v>69.76814789863437</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
-        <v>69.76814789863437</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
-        <v>69.76814789863437</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
@@ -6074,10 +6074,10 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N24" t="n">
         <v>473.4149733950735</v>
@@ -6092,28 +6092,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U24" t="n">
-        <v>964.0571555106362</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V24" t="n">
-        <v>964.0571555106362</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W24" t="n">
-        <v>720.6083788665362</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="X24" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y24" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L25" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M25" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N25" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>19.28114311021272</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="C26" t="n">
-        <v>19.28114311021272</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="D26" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E26" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F26" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6253,25 +6253,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S26" t="n">
-        <v>802.5825927271064</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T26" t="n">
-        <v>802.5825927271064</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U26" t="n">
-        <v>559.1338160830064</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V26" t="n">
-        <v>315.6850394389064</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="W26" t="n">
-        <v>72.23626279480629</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="X26" t="n">
-        <v>19.28114311021272</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="Y26" t="n">
-        <v>19.28114311021272</v>
+        <v>518.2486856454962</v>
       </c>
     </row>
     <row r="27">
@@ -6281,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>178.5185981156682</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C27" t="n">
-        <v>178.5185981156682</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D27" t="n">
-        <v>178.5185981156682</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
@@ -6311,19 +6311,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>248.2447175439888</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>486.8488635328713</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N27" t="n">
-        <v>725.4530095217538</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O27" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P27" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
@@ -6332,25 +6332,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>858.042493228912</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>858.042493228912</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>629.8188749653011</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V27" t="n">
-        <v>629.8188749653011</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W27" t="n">
-        <v>386.3700983212011</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X27" t="n">
-        <v>178.5185981156682</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y27" t="n">
-        <v>178.5185981156682</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="28">
@@ -6408,25 +6408,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
         <v>19.28114311021272</v>
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>569.2254314512334</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C29" t="n">
-        <v>325.7766548071333</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D29" t="n">
-        <v>325.7766548071333</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E29" t="n">
-        <v>325.7766548071333</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F29" t="n">
-        <v>325.7766548071333</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G29" t="n">
-        <v>325.7766548071333</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H29" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I29" t="n">
         <v>31.35113235729608</v>
@@ -6484,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S29" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T29" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U29" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V29" t="n">
-        <v>812.6742080953335</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="W29" t="n">
-        <v>569.2254314512334</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="X29" t="n">
-        <v>569.2254314512334</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="Y29" t="n">
-        <v>569.2254314512334</v>
+        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="30">
@@ -6518,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>272.1352367728036</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="C30" t="n">
-        <v>272.1352367728036</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D30" t="n">
-        <v>272.1352367728036</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E30" t="n">
-        <v>272.1352367728036</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F30" t="n">
-        <v>272.1352367728036</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G30" t="n">
-        <v>133.4044113554191</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H30" t="n">
         <v>20.03527576299844</v>
@@ -6554,10 +6554,10 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N30" t="n">
-        <v>851.8101010141643</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O30" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P30" t="n">
         <v>964.0571555106362</v>
@@ -6572,22 +6572,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U30" t="n">
-        <v>750.7361216486463</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V30" t="n">
-        <v>515.5840134169036</v>
+        <v>402.2486038090794</v>
       </c>
       <c r="W30" t="n">
-        <v>272.1352367728036</v>
+        <v>402.2486038090794</v>
       </c>
       <c r="X30" t="n">
-        <v>272.1352367728036</v>
+        <v>402.2486038090794</v>
       </c>
       <c r="Y30" t="n">
-        <v>272.1352367728036</v>
+        <v>194.4883050441255</v>
       </c>
     </row>
     <row r="31">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>506.1786963984129</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="C32" t="n">
-        <v>506.1786963984129</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="D32" t="n">
-        <v>506.1786963984129</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="E32" t="n">
-        <v>506.1786963984129</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="F32" t="n">
-        <v>262.7299197543128</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="G32" t="n">
         <v>19.28114311021272</v>
@@ -6721,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T32" t="n">
-        <v>749.627473042513</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U32" t="n">
-        <v>749.627473042513</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V32" t="n">
-        <v>506.1786963984129</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="W32" t="n">
-        <v>506.1786963984129</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="X32" t="n">
-        <v>506.1786963984129</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="Y32" t="n">
-        <v>506.1786963984129</v>
+        <v>122.6530896684844</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>132.6502787026334</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C33" t="n">
-        <v>132.6502787026334</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D33" t="n">
-        <v>132.6502787026334</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E33" t="n">
-        <v>132.6502787026334</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F33" t="n">
-        <v>132.6502787026334</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G33" t="n">
-        <v>132.6502787026334</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N33" t="n">
-        <v>712.019119383956</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O33" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>959.9261913372882</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>959.9261913372882</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>959.9261913372882</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U33" t="n">
-        <v>959.9261913372882</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V33" t="n">
-        <v>959.9261913372882</v>
+        <v>679.0958513775852</v>
       </c>
       <c r="W33" t="n">
-        <v>716.4774146931882</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="X33" t="n">
-        <v>508.6259144876553</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y33" t="n">
-        <v>300.8656157227014</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="34">
@@ -6879,19 +6879,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
         <v>19.28114311021272</v>
@@ -6922,13 +6922,13 @@
         <v>477.1596022224361</v>
       </c>
       <c r="E35" t="n">
+        <v>477.1596022224361</v>
+      </c>
+      <c r="F35" t="n">
+        <v>477.1596022224361</v>
+      </c>
+      <c r="G35" t="n">
         <v>233.7108255783361</v>
-      </c>
-      <c r="F35" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="G35" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="H35" t="n">
         <v>19.28114311021272</v>
@@ -6970,16 +6970,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U35" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V35" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W35" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X35" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y35" t="n">
         <v>720.6083788665362</v>
@@ -7022,16 +7022,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>178.8501590306595</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>417.4543050195419</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N36" t="n">
-        <v>656.0584510084244</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O36" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P36" t="n">
         <v>894.6625969973069</v>
@@ -7043,22 +7043,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>588.4532163200711</v>
+        <v>933.8659450146204</v>
       </c>
       <c r="U36" t="n">
-        <v>360.2295980564601</v>
+        <v>705.6423267510095</v>
       </c>
       <c r="V36" t="n">
-        <v>125.0774898247174</v>
+        <v>470.4902185192667</v>
       </c>
       <c r="W36" t="n">
-        <v>19.28114311021272</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="X36" t="n">
-        <v>19.28114311021272</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y36" t="n">
         <v>19.28114311021272</v>
@@ -7131,7 +7131,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
         <v>19.28114311021272</v>
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>964.0571555106362</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="C38" t="n">
-        <v>964.0571555106362</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="D38" t="n">
-        <v>964.0571555106362</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="E38" t="n">
-        <v>720.6083788665362</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="F38" t="n">
-        <v>477.1596022224361</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="G38" t="n">
-        <v>233.7108255783361</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="H38" t="n">
         <v>19.28114311021272</v>
@@ -7195,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T38" t="n">
-        <v>964.0571555106362</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U38" t="n">
-        <v>964.0571555106362</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="V38" t="n">
-        <v>964.0571555106362</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="W38" t="n">
-        <v>964.0571555106362</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="X38" t="n">
-        <v>964.0571555106362</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="Y38" t="n">
-        <v>964.0571555106362</v>
+        <v>577.2332497330343</v>
       </c>
     </row>
     <row r="39">
@@ -7229,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>425.5489231905453</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C39" t="n">
-        <v>251.0958939094183</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D39" t="n">
-        <v>178.5185981156682</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
@@ -7265,40 +7265,40 @@
         <v>374.6018090363993</v>
       </c>
       <c r="N39" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O39" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P39" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>660.701031422288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>660.701031422288</v>
+        <v>914.2479596093278</v>
       </c>
       <c r="V39" t="n">
-        <v>425.5489231905453</v>
+        <v>679.0958513775852</v>
       </c>
       <c r="W39" t="n">
-        <v>425.5489231905453</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="X39" t="n">
-        <v>425.5489231905453</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y39" t="n">
-        <v>425.5489231905453</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L40" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M40" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N40" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="41">
@@ -7390,13 +7390,13 @@
         <v>262.7299197543128</v>
       </c>
       <c r="C41" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D41" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E41" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F41" t="n">
         <v>19.28114311021272</v>
@@ -7438,25 +7438,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S41" t="n">
-        <v>953.9655401424092</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T41" t="n">
-        <v>953.9655401424092</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U41" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V41" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W41" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X41" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y41" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="42">
@@ -7466,43 +7466,43 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>344.6327430815143</v>
+        <v>178.0434248788474</v>
       </c>
       <c r="C42" t="n">
-        <v>344.6327430815143</v>
+        <v>178.0434248788474</v>
       </c>
       <c r="D42" t="n">
-        <v>344.6327430815143</v>
+        <v>178.0434248788474</v>
       </c>
       <c r="E42" t="n">
-        <v>344.6327430815143</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F42" t="n">
-        <v>272.1352367728036</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G42" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J42" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M42" t="n">
-        <v>249.2442489785619</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N42" t="n">
-        <v>487.8483949674443</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O42" t="n">
         <v>712.019119383956</v>
@@ -7520,22 +7520,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T42" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U42" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V42" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W42" t="n">
-        <v>720.6083788665362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="X42" t="n">
-        <v>720.6083788665362</v>
+        <v>554.0190606638694</v>
       </c>
       <c r="Y42" t="n">
-        <v>512.8480801015824</v>
+        <v>346.2587618989155</v>
       </c>
     </row>
     <row r="43">
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F43" t="n">
         <v>19.28114311021272</v>
@@ -7596,25 +7596,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="44">
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>19.28114311021272</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="C44" t="n">
-        <v>19.28114311021272</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="D44" t="n">
-        <v>19.28114311021272</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="E44" t="n">
-        <v>19.28114311021272</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="F44" t="n">
-        <v>19.28114311021272</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="G44" t="n">
-        <v>19.28114311021272</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="H44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J44" t="n">
         <v>19.28114311021272</v>
@@ -7672,28 +7672,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R44" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S44" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T44" t="n">
-        <v>964.0571555106362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U44" t="n">
-        <v>964.0571555106362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="V44" t="n">
-        <v>964.0571555106362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="W44" t="n">
-        <v>749.627473042513</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="X44" t="n">
-        <v>506.1786963984129</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="Y44" t="n">
-        <v>262.7299197543128</v>
+        <v>376.1934816808115</v>
       </c>
     </row>
     <row r="45">
@@ -7730,22 +7730,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L45" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M45" t="n">
-        <v>473.4149733950735</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N45" t="n">
-        <v>712.019119383956</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O45" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P45" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q45" t="n">
         <v>964.0571555106362</v>
@@ -7760,16 +7760,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U45" t="n">
-        <v>735.8335372470253</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="V45" t="n">
-        <v>500.6814290152826</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W45" t="n">
-        <v>257.2326523711826</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X45" t="n">
-        <v>49.38115216564972</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y45" t="n">
         <v>19.28114311021272</v>
@@ -7842,7 +7842,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
         <v>19.28114311021272</v>
@@ -7981,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>264.2220234242092</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L2" t="n">
-        <v>279.8985873492159</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>274.4784056065013</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N2" t="n">
-        <v>271.7621178998911</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O2" t="n">
-        <v>230.0982114216867</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8060,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N3" t="n">
-        <v>173.6907663866335</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>186.728416823673</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>178.1065797935588</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>184.1139464652501</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8218,22 +8218,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>279.8985873492159</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>274.4784056065013</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
-        <v>273.5452359758195</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
-        <v>272.4472657249869</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8297,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>184.4830882253185</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>186.728416823673</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>178.1065797935588</v>
+        <v>177.2597568922521</v>
       </c>
       <c r="Q6" t="n">
-        <v>184.1139464652501</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8455,22 +8455,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L8" t="n">
-        <v>279.8985873492159</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>274.4784056065013</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>271.7621178998911</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
-        <v>274.2303838009153</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8534,25 +8534,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>182.6865521591028</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>186.2662063012469</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N9" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>176.3234617176304</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>184.1139464652501</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8692,22 +8692,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>264.2220234242092</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>278.1154692732874</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>230.3462332272727</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>229.4130635965909</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>274.2303838009153</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>275.3651681344982</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8771,25 +8771,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>184.4830882253185</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O12" t="n">
-        <v>186.728416823673</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P12" t="n">
-        <v>178.1065797935588</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>184.1139464652501</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8929,22 +8929,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>279.8985873492159</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>230.3462332272727</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>273.5452359758195</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>274.2303838009153</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>273.5820500585697</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9008,22 +9008,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>181.9736113535876</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>182.6865521591028</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>255.5148970497678</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O15" t="n">
-        <v>186.728416823673</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
-        <v>176.3234617176304</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -9248,22 +9248,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>233.2169876979182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9403,7 +9403,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9482,19 +9482,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>368.5691090902119</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9722,13 +9722,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>233.2169876979182</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9959,22 +9959,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>243.2069195535496</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10202,13 +10202,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>255.9771075721939</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -10430,25 +10430,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>368.5691090902119</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10591,7 +10591,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M35" t="n">
         <v>449.5135334928325</v>
@@ -10670,19 +10670,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>173.111405903722</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N36" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10913,7 +10913,7 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>301.248502863135</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11141,19 +11141,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N42" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>369.031319612638</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
@@ -11378,25 +11378,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>241.9453110519923</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N45" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22591,22 +22591,22 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>182.0977415092333</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>178.9636771849028</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>207.2134805286079</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V2" t="n">
-        <v>283.6200860909063</v>
+        <v>237.3633207320585</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -22625,28 +22625,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>122.4010112706387</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>65.6186746079696</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>74.11041813112978</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>45.26446047218649</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22673,10 +22673,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>56.02566177341454</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
@@ -22688,7 +22688,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -22746,16 +22746,16 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>1.930990287424243</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>42.02987087246579</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>133.1612189979409</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>179.8844256577437</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
         <v>227.9455894282815</v>
@@ -22767,7 +22767,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22792,19 +22792,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F5" t="n">
-        <v>389.9444168792442</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>371.1705651359065</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
-        <v>295.3426297365386</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>166.3437171911773</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22831,7 +22831,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -22849,10 +22849,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>329.2548215453339</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -22862,7 +22862,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>122.4010112706387</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -22880,10 +22880,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>74.11041813112978</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>45.26446047218649</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22910,7 +22910,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>56.02566177341454</v>
+        <v>43.98752514189738</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -22919,19 +22919,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -22983,16 +22983,16 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>1.930990287424243</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>42.02987087246579</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>133.1612189979409</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>179.8844256577437</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T7" t="n">
         <v>227.9455894282815</v>
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23032,16 +23032,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>389.9444168792442</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>371.1705651359065</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>295.3426297365386</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>166.3437171911773</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23068,16 +23068,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>192.9509344611737</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23089,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="9">
@@ -23111,16 +23111,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>106.9441862880172</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>93.21134478398204</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>68.10327185726787</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>45.26446047218649</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23153,19 +23153,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>171.1123110561968</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -23196,16 +23196,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>118.095000128211</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>111.3183025480297</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>49.22700773744418</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>21.47904137820059</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23241,7 +23241,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23266,13 +23266,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>341.4540909391266</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G11" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H11" t="n">
         <v>339.4748021157671</v>
@@ -23281,7 +23281,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23305,7 +23305,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>209.0200695862453</v>
@@ -23314,19 +23314,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>207.2134805286079</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
-        <v>283.6200860909063</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>325.5989282992405</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>357.3570204389738</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23348,16 +23348,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>106.9441862880172</v>
+        <v>34.03922302265721</v>
       </c>
       <c r="G12" t="n">
-        <v>93.21134478398204</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>68.10327185726787</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>45.26446047218649</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,7 +23384,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>171.6831711038378</v>
@@ -23396,10 +23396,10 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -23460,19 +23460,19 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>42.02987087246579</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>133.1612189979409</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
-        <v>179.8844256577437</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T13" t="n">
-        <v>227.1551389805992</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U13" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23506,7 +23506,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G14" t="n">
         <v>415.302737515135</v>
@@ -23518,7 +23518,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23542,22 +23542,22 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>120.9881997240699</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>164.8878972070167</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>178.9636771849028</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>207.2134805286079</v>
+        <v>61.00025583355162</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -23576,22 +23576,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>120.6456090999285</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>89.39663285141508</v>
@@ -23621,22 +23621,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>132.8115536722133</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>156.032556315593</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>181.8092097017462</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>188.6684147701967</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -23670,16 +23670,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H16" t="n">
-        <v>139.5740415064116</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>111.3183025480297</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>49.22700773744418</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -23743,16 +23743,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>176.0015501456288</v>
+        <v>316.4871080036351</v>
       </c>
       <c r="G17" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23776,16 +23776,16 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>251.3456529078365</v>
@@ -23819,22 +23819,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>110.7932164693578</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23858,13 +23858,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -23873,7 +23873,7 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>247.1144340662031</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23934,16 +23934,16 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T19" t="n">
-        <v>180.9206650946078</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
         <v>286.3190293564909</v>
@@ -23968,22 +23968,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>182.3977453746509</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D20" t="n">
         <v>113.6687527430239</v>
       </c>
       <c r="E20" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
         <v>339.4748021157671</v>
@@ -23992,7 +23992,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24013,10 +24013,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>209.0200695862453</v>
@@ -24028,13 +24028,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>275.3266899823874</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24050,25 +24050,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>127.4196248553433</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>14.75355855760483</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24095,7 +24095,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
@@ -24104,13 +24104,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
@@ -24129,7 +24129,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325981</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24177,7 +24177,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
         <v>227.9455894282815</v>
@@ -24220,10 +24220,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
@@ -24250,7 +24250,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
@@ -24259,13 +24259,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>86.73796959247585</v>
+        <v>125.4575720412377</v>
       </c>
       <c r="W23" t="n">
         <v>108.226679839754</v>
@@ -24284,16 +24284,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
@@ -24305,10 +24305,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>40.16108943713551</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24332,7 +24332,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>171.6831711038378</v>
@@ -24341,16 +24341,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>70.35882518776063</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -24366,7 +24366,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>34.05985351325984</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24411,7 +24411,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S25" t="n">
         <v>224.0165980369723</v>
@@ -24448,7 +24448,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -24457,7 +24457,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
@@ -24466,7 +24466,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24493,22 +24493,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>86.73796959247585</v>
+        <v>255.2817600455861</v>
       </c>
       <c r="W26" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>317.3055321907214</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24530,7 +24530,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
@@ -24545,7 +24545,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24572,7 +24572,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>66.72865544493085</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
         <v>200.1647286948216</v>
@@ -24581,7 +24581,7 @@
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>10.68069428326055</v>
@@ -24590,7 +24590,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>176.6302781386796</v>
       </c>
     </row>
     <row r="28">
@@ -24648,7 +24648,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S28" t="n">
         <v>224.0165980369723</v>
@@ -24669,7 +24669,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24682,7 +24682,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -24694,13 +24694,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
-        <v>258.4694244608343</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24724,10 +24724,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
         <v>209.0200695862453</v>
@@ -24739,13 +24739,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>137.40686139585</v>
       </c>
       <c r="W29" t="n">
         <v>108.226679839754</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24761,7 +24761,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -24773,10 +24773,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
         <v>89.39663285141508</v>
@@ -24812,22 +24812,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>14.7535585576048</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>102.7162317406805</v>
       </c>
       <c r="W30" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24928,10 +24928,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>174.288448637476</v>
+        <v>312.9645104224461</v>
       </c>
       <c r="H32" t="n">
         <v>339.4748021157671</v>
@@ -24961,22 +24961,22 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>10.81046392068936</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V32" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -24995,7 +24995,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
@@ -25013,13 +25013,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25043,7 +25043,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>96.06817962102856</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
@@ -25052,10 +25052,10 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>176.6302781386795</v>
       </c>
       <c r="W33" t="n">
         <v>10.68069428326055</v>
@@ -25119,10 +25119,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
-        <v>130.2684670434958</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
         <v>224.0165980369723</v>
@@ -25134,7 +25134,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25162,16 +25162,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>194.5906600982693</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H35" t="n">
-        <v>339.4748021157671</v>
+        <v>127.189416472325</v>
       </c>
       <c r="I35" t="n">
         <v>210.4758895704059</v>
@@ -25210,7 +25210,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25222,7 +25222,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25283,10 +25283,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>170.2754303037659</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -25295,13 +25295,13 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>146.95659991356</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25371,10 +25371,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V37" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25399,7 +25399,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>165.8617568640524</v>
@@ -25408,7 +25408,7 @@
         <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
-        <v>127.189416472325</v>
+        <v>269.1307943144919</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
@@ -25435,16 +25435,16 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>251.3456529078365</v>
@@ -25472,13 +25472,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>75.59354272882622</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
@@ -25493,7 +25493,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25517,28 +25517,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>176.6302781386795</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>46.64501259656927</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>15.42850543284436</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25627,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25639,7 +25639,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>415.302737515135</v>
@@ -25678,13 +25678,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3456529078365</v>
+        <v>240.1525967516569</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -25693,10 +25693,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>167.4364142495718</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y41" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25715,22 +25715,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0.4704215044526165</v>
       </c>
       <c r="F42" t="n">
-        <v>73.29668114776031</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25760,7 +25760,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>225.9413820809748</v>
@@ -25769,10 +25769,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -25797,7 +25797,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G43" t="n">
         <v>167.9909793584588</v>
@@ -25836,7 +25836,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T43" t="n">
         <v>227.9455894282815</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25879,16 +25879,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H44" t="n">
-        <v>339.4748021157671</v>
+        <v>239.095165163146</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25912,13 +25912,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>251.3456529078365</v>
@@ -25927,13 +25927,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>136.955583073971</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -26000,7 +26000,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>175.8836868124218</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -26012,7 +26012,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>175.8836868124217</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26082,10 +26082,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V46" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>358659.0160535966</v>
+        <v>498482.0175939975</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>358659.0160535966</v>
+        <v>498482.0175939975</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>358659.0160535966</v>
+        <v>498482.0175939975</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>358659.0160535966</v>
+        <v>498482.0175939975</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>358659.0160535966</v>
+        <v>498482.0175939975</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>498482.0175939976</v>
+        <v>498482.0175939975</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>498482.0175939975</v>
+        <v>498482.0175939976</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>498482.0175939975</v>
+        <v>498482.0175939973</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>498482.0175939976</v>
+        <v>498482.0175939975</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>498482.0175939975</v>
+        <v>498482.0175939974</v>
       </c>
     </row>
   </sheetData>
@@ -26313,43 +26313,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>59776.50267559939</v>
+        <v>83080.33626566621</v>
       </c>
       <c r="C2" t="n">
-        <v>59776.5026755994</v>
+        <v>83080.33626566618</v>
       </c>
       <c r="D2" t="n">
-        <v>59776.5026755994</v>
+        <v>83080.33626566621</v>
       </c>
       <c r="E2" t="n">
-        <v>59776.50267559939</v>
+        <v>83080.33626566618</v>
       </c>
       <c r="F2" t="n">
-        <v>59776.50267559938</v>
+        <v>83080.33626566618</v>
       </c>
       <c r="G2" t="n">
-        <v>83080.33626566616</v>
+        <v>83080.33626566618</v>
       </c>
       <c r="H2" t="n">
-        <v>83080.33626566624</v>
+        <v>83080.33626566615</v>
       </c>
       <c r="I2" t="n">
-        <v>83080.33626566616</v>
+        <v>83080.33626566618</v>
       </c>
       <c r="J2" t="n">
         <v>83080.33626566618</v>
       </c>
       <c r="K2" t="n">
-        <v>83080.33626566615</v>
+        <v>83080.33626566618</v>
       </c>
       <c r="L2" t="n">
         <v>83080.33626566618</v>
       </c>
       <c r="M2" t="n">
+        <v>83080.33626566621</v>
+      </c>
+      <c r="N2" t="n">
         <v>83080.33626566618</v>
-      </c>
-      <c r="N2" t="n">
-        <v>83080.33626566616</v>
       </c>
       <c r="O2" t="n">
         <v>83080.33626566621</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14789.70600424422</v>
+        <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>53962.43490047232</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>11546.91810999089</v>
+        <v>63059.94259910623</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>47379.87821746379</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>36.87052286425572</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="C4" t="n">
-        <v>36.87052286425573</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="D4" t="n">
-        <v>36.87052286425572</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="E4" t="n">
-        <v>36.87052286425573</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="F4" t="n">
-        <v>36.87052286425572</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="G4" t="n">
         <v>179.5324977039669</v>
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>36310.8360806571</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="C5" t="n">
-        <v>36310.8360806571</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="D5" t="n">
-        <v>36310.8360806571</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>2683.236080657098</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="F5" t="n">
-        <v>2683.236080657098</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="G5" t="n">
         <v>14653.66876376167</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8639.090067833808</v>
+        <v>-58367.90714738762</v>
       </c>
       <c r="C6" t="n">
-        <v>23428.79607207804</v>
+        <v>22401.52438416007</v>
       </c>
       <c r="D6" t="n">
-        <v>23428.79607207804</v>
+        <v>22401.5243841601</v>
       </c>
       <c r="E6" t="n">
-        <v>57056.39607207803</v>
+        <v>56029.12438416007</v>
       </c>
       <c r="F6" t="n">
-        <v>57056.39607207802</v>
+        <v>56029.12438416007</v>
       </c>
       <c r="G6" t="n">
-        <v>14284.70010372821</v>
+        <v>56029.12438416007</v>
       </c>
       <c r="H6" t="n">
-        <v>68247.13500420059</v>
+        <v>56029.12438416004</v>
       </c>
       <c r="I6" t="n">
-        <v>68247.13500420052</v>
+        <v>56029.12438416007</v>
       </c>
       <c r="J6" t="n">
-        <v>56700.21689420965</v>
+        <v>-7030.818214946155</v>
       </c>
       <c r="K6" t="n">
-        <v>68247.13500420051</v>
+        <v>56029.12438416007</v>
       </c>
       <c r="L6" t="n">
-        <v>68247.13500420054</v>
+        <v>56029.12438416007</v>
       </c>
       <c r="M6" t="n">
-        <v>68247.13500420054</v>
+        <v>56029.1243841601</v>
       </c>
       <c r="N6" t="n">
-        <v>68247.13500420052</v>
+        <v>56029.12438416007</v>
       </c>
       <c r="O6" t="n">
-        <v>20867.25678673678</v>
+        <v>56029.1243841601</v>
       </c>
       <c r="P6" t="n">
-        <v>68247.13500420054</v>
+        <v>56029.12438416007</v>
       </c>
     </row>
   </sheetData>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G4" t="n">
         <v>241.0142888776591</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>196.8821164984305</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27050,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>196.8821164984305</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>196.8821164984305</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>44.13217237922859</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L2" t="n">
-        <v>44.13217237922859</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>44.13217237922859</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N2" t="n">
-        <v>42.34905430330016</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="N3" t="n">
-        <v>42.34905430330018</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>44.13217237922859</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>44.13217237922859</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L5" t="n">
-        <v>44.13217237922859</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>44.13217237922859</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
-        <v>44.13217237922859</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
-        <v>42.34905430330016</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>42.34905430330018</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>44.13217237922859</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="Q6" t="n">
-        <v>44.13217237922859</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35175,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L8" t="n">
-        <v>44.13217237922859</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>44.13217237922859</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
-        <v>42.34905430330019</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
-        <v>44.13217237922859</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>44.13217237922859</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>44.13217237922859</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>42.34905430330019</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>44.13217237922859</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35412,22 +35412,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>44.13217237922859</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L11" t="n">
-        <v>42.34905430330018</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O11" t="n">
-        <v>44.13217237922859</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P11" t="n">
-        <v>44.13217237922859</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>42.34905430330018</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O12" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P12" t="n">
-        <v>44.13217237922859</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>44.13217237922859</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35649,22 +35649,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L14" t="n">
-        <v>44.13217237922859</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N14" t="n">
-        <v>44.13217237922859</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O14" t="n">
-        <v>44.13217237922859</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P14" t="n">
-        <v>42.34905430330016</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35728,22 +35728,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>44.13217237922859</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>44.13217237922859</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>113.3808631277495</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O15" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P15" t="n">
-        <v>42.34905430330016</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35892,7 +35892,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M17" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N17" t="n">
         <v>207.9338608153932</v>
@@ -35968,22 +35968,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36202,19 +36202,19 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>226.4350751681936</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="O21" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
@@ -36442,13 +36442,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>91.0829537758999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36679,22 +36679,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>104.6525397736754</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36922,13 +36922,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>113.3808631277494</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37150,25 +37150,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P33" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37390,19 +37390,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>34.55702612384782</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
         <v>70.09551364982758</v>
@@ -37633,7 +37633,7 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>169.9067907798017</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
@@ -37642,7 +37642,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37861,19 +37861,19 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O42" t="n">
-        <v>226.4350751681936</v>
       </c>
       <c r="P42" t="n">
         <v>184.4883612256069</v>
@@ -38098,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>99.81127712997396</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N45" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_0_10.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_0_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>268277.9841761547</v>
+        <v>362272.9485238821</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>925399.3994514376</v>
+        <v>2114249.189782366</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18327015.93006067</v>
+        <v>19492207.60956401</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5764008.847562066</v>
+        <v>5116643.000488905</v>
       </c>
     </row>
     <row r="11">
@@ -667,22 +667,22 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>90.38893773807641</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -743,16 +743,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>81.82639095666916</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -800,7 +800,7 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>0.790450447682262</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -867,10 +867,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -904,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -919,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -943,16 +943,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>28.88091821707974</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>40.47627913313517</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -980,13 +980,13 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -998,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>56.17030901074575</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1031,19 +1031,19 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1104,10 +1104,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>0.790450447682262</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>241.0142888776591</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1141,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1177,19 +1177,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U8" t="n">
-        <v>58.39471844666277</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1211,13 +1211,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1235,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1265,22 +1265,22 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>29.05241763862484</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
     </row>
     <row r="10">
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>0.790450447682262</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1378,13 +1378,13 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>40.47627913313517</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1393,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1417,19 +1417,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>28.88091821707973</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>111.0299893707267</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -1505,13 +1505,13 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="W12" t="n">
-        <v>241.0142888776591</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1584,19 +1584,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>0.790450447682262</v>
       </c>
     </row>
     <row r="14">
@@ -1618,19 +1618,19 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1651,7 +1651,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -1663,13 +1663,13 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>190.3453970742849</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="V14" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="W14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1688,22 +1688,22 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>52.0628898883872</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -1742,13 +1742,13 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>241.0142888776591</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>0.790450447682262</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>133.186967585368</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1830,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1843,31 +1843,31 @@
         </is>
       </c>
       <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C17" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>90.38893773807641</v>
-      </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1891,13 +1891,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1922,22 +1922,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>46.85186398604318</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>20.27522559021806</v>
       </c>
       <c r="H18" t="n">
         <v>112.2354442364965</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1970,25 +1970,25 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2086,7 +2086,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="D20" t="n">
-        <v>241.0142888776591</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2125,22 +2125,22 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>52.42556848774752</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2168,22 +2168,22 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>78.94281254009712</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>122.5899586056058</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -2216,7 +2216,7 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2241,61 +2241,61 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2323,7 +2323,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2335,52 +2335,52 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>202.2946864288972</v>
-      </c>
       <c r="W23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2402,25 +2402,25 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>51.3162985621293</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2453,16 +2453,16 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>135.4141600157168</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2554,13 +2554,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2569,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2578,7 +2578,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2602,19 +2602,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V26" t="n">
-        <v>72.47049842454879</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2639,13 +2639,13 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2657,7 +2657,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2681,28 +2681,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>72.4714338814989</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>29.05241763862477</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2760,22 +2760,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
-      </c>
-      <c r="W28" t="n">
-        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2797,7 +2797,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2806,58 +2806,58 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>230.2038249569697</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
       <c r="V29" t="n">
-        <v>190.3453970742849</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2882,10 +2882,10 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>103.9486554343217</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2918,28 +2918,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>130.0843554087448</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3009,7 +3009,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>112.3289263072337</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3043,7 +3043,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>102.3382270926889</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3073,7 +3073,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
@@ -3085,10 +3085,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3113,7 +3113,7 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -3122,16 +3122,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>76.56695936884228</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -3164,19 +3164,19 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>56.17030901074575</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3246,10 +3246,10 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3268,7 +3268,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3283,7 +3283,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H35" t="n">
-        <v>212.2853856434421</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3310,19 +3310,19 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3350,19 +3350,19 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>8.811245058012965</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3395,25 +3395,25 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>29.8892983910557</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3432,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3514,14 +3514,14 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G38" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H38" t="n">
-        <v>70.34400780127524</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
@@ -3547,10 +3547,10 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3559,10 +3559,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3605,7 +3605,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3632,22 +3632,22 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>70.73885857389301</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>49.3111039422953</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -3660,58 +3660,58 @@
         </is>
       </c>
       <c r="B40" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C40" t="n">
-        <v>0</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3742,20 +3742,20 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
@@ -3784,10 +3784,10 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
         <v>209.0200695862453</v>
@@ -3796,7 +3796,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>11.19305615617957</v>
+        <v>112.3289263072337</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3805,7 +3805,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3818,31 +3818,31 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>157.1746589509483</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3866,28 +3866,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>134.6855069843875</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3979,10 +3979,10 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -3991,16 +3991,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>100.3796369526212</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4024,10 +4024,10 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>223.0958495641314</v>
@@ -4039,7 +4039,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4058,7 +4058,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4079,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4109,16 +4109,16 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>50.05769526855297</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>241.0142888776591</v>
+        <v>150.252752286242</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4197,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>31.35113235729608</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="C2" t="n">
-        <v>31.35113235729608</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="D2" t="n">
-        <v>31.35113235729608</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="E2" t="n">
-        <v>31.35113235729608</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="F2" t="n">
-        <v>31.35113235729608</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="G2" t="n">
-        <v>31.35113235729608</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="H2" t="n">
-        <v>31.35113235729608</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I2" t="n">
-        <v>31.35113235729608</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J2" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K2" t="n">
-        <v>122.2961490211351</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L2" t="n">
-        <v>302.3720006057937</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M2" t="n">
-        <v>519.3476278686978</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="N2" t="n">
-        <v>725.2021500759372</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="O2" t="n">
-        <v>874.3971002185853</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="P2" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q2" t="n">
-        <v>953.9655401424092</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R2" t="n">
-        <v>802.5825927271064</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S2" t="n">
-        <v>591.4512093066566</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T2" t="n">
-        <v>366.1018663125844</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U2" t="n">
-        <v>122.6530896684844</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V2" t="n">
-        <v>31.35113235729608</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W2" t="n">
-        <v>31.35113235729608</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="X2" t="n">
-        <v>31.35113235729608</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Y2" t="n">
-        <v>31.35113235729608</v>
+        <v>176.5286895169144</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>547.1910343172051</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="C3" t="n">
-        <v>547.1910343172051</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="D3" t="n">
-        <v>464.5381141589534</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="E3" t="n">
-        <v>305.3006591534979</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="F3" t="n">
-        <v>158.7661011803829</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G3" t="n">
-        <v>20.03527576299844</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H3" t="n">
-        <v>20.03527576299844</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I3" t="n">
-        <v>20.03527576299844</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J3" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="L3" t="n">
-        <v>144.6387031680501</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="M3" t="n">
-        <v>234.810827406191</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="N3" t="n">
-        <v>473.4149733950735</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q3" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="S3" t="n">
-        <v>790.6398109613051</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="T3" t="n">
-        <v>790.6398109613051</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="U3" t="n">
-        <v>790.6398109613051</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="V3" t="n">
-        <v>790.6398109613051</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="W3" t="n">
-        <v>547.1910343172051</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="X3" t="n">
-        <v>547.1910343172051</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="Y3" t="n">
-        <v>547.1910343172051</v>
+        <v>87.37278572049297</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L4" t="n">
-        <v>46.5952681179257</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M4" t="n">
-        <v>85.78330631014788</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N4" t="n">
-        <v>129.4741569655842</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O4" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P4" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q4" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R4" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S4" t="n">
-        <v>153.8134336004835</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="T4" t="n">
-        <v>153.8134336004835</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8134336004835</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="V4" t="n">
-        <v>153.8134336004835</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="W4" t="n">
-        <v>19.28114311021272</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="X4" t="n">
-        <v>19.28114311021272</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>274.7999090013961</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C5" t="n">
-        <v>274.7999090013961</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D5" t="n">
-        <v>274.7999090013961</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E5" t="n">
-        <v>31.35113235729608</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F5" t="n">
-        <v>31.35113235729608</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G5" t="n">
-        <v>31.35113235729608</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H5" t="n">
-        <v>31.35113235729608</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I5" t="n">
-        <v>31.35113235729608</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J5" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K5" t="n">
-        <v>122.2961490211351</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="L5" t="n">
-        <v>302.3720006057937</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="M5" t="n">
-        <v>519.3476278686978</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="N5" t="n">
-        <v>725.2021500759372</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O5" t="n">
-        <v>874.3971002185853</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P5" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q5" t="n">
-        <v>953.9655401424092</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="R5" t="n">
-        <v>802.5825927271064</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="S5" t="n">
-        <v>802.5825927271064</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="T5" t="n">
-        <v>802.5825927271064</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="U5" t="n">
-        <v>802.5825927271064</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="V5" t="n">
-        <v>802.5825927271064</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="W5" t="n">
-        <v>802.5825927271064</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X5" t="n">
-        <v>761.6974622895962</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y5" t="n">
-        <v>518.2486856454962</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>20.03527576299844</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="C6" t="n">
-        <v>20.03527576299844</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="D6" t="n">
-        <v>20.03527576299844</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="E6" t="n">
-        <v>20.03527576299844</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="F6" t="n">
-        <v>20.03527576299844</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G6" t="n">
-        <v>20.03527576299844</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H6" t="n">
-        <v>20.03527576299844</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I6" t="n">
-        <v>20.03527576299844</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J6" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M6" t="n">
-        <v>613.2059550252818</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="N6" t="n">
-        <v>851.8101010141643</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="O6" t="n">
-        <v>851.8101010141643</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q6" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R6" t="n">
-        <v>907.3194696411961</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="S6" t="n">
-        <v>907.3194696411961</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="T6" t="n">
-        <v>907.3194696411961</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="U6" t="n">
-        <v>679.0958513775852</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="V6" t="n">
-        <v>679.0958513775852</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="W6" t="n">
-        <v>435.6470747334852</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="X6" t="n">
-        <v>227.7955745279523</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="Y6" t="n">
-        <v>20.03527576299844</v>
+        <v>87.37278572049297</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L7" t="n">
-        <v>46.5952681179257</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M7" t="n">
-        <v>85.78330631014788</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N7" t="n">
-        <v>129.4741569655842</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O7" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S7" t="n">
-        <v>19.28114311021272</v>
+        <v>138.062864280609</v>
       </c>
       <c r="T7" t="n">
-        <v>19.28114311021272</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="U7" t="n">
-        <v>19.28114311021272</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="V7" t="n">
-        <v>19.28114311021272</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="W7" t="n">
-        <v>19.28114311021272</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="X7" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>31.35113235729608</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="C8" t="n">
-        <v>31.35113235729608</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="D8" t="n">
-        <v>31.35113235729608</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="E8" t="n">
-        <v>31.35113235729608</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F8" t="n">
-        <v>31.35113235729608</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G8" t="n">
-        <v>31.35113235729608</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H8" t="n">
-        <v>31.35113235729608</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I8" t="n">
-        <v>31.35113235729608</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J8" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K8" t="n">
-        <v>122.2961490211351</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L8" t="n">
-        <v>302.3720006057937</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M8" t="n">
-        <v>519.3476278686978</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="N8" t="n">
-        <v>725.2021500759372</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="O8" t="n">
-        <v>874.3971002185853</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P8" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q8" t="n">
-        <v>953.9655401424092</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R8" t="n">
-        <v>802.5825927271064</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="S8" t="n">
-        <v>802.5825927271064</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="T8" t="n">
-        <v>577.2332497330343</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="U8" t="n">
-        <v>518.2486856454962</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="V8" t="n">
-        <v>518.2486856454962</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="W8" t="n">
-        <v>518.2486856454962</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="X8" t="n">
-        <v>518.2486856454962</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="Y8" t="n">
-        <v>274.7999090013961</v>
+        <v>87.37278572049297</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>20.03527576299844</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="C9" t="n">
-        <v>20.03527576299844</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="D9" t="n">
-        <v>20.03527576299844</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E9" t="n">
-        <v>20.03527576299844</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F9" t="n">
-        <v>20.03527576299844</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G9" t="n">
-        <v>20.03527576299844</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H9" t="n">
-        <v>20.03527576299844</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299844</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J9" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M9" t="n">
-        <v>473.4149733950735</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="N9" t="n">
-        <v>473.4149733950735</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="O9" t="n">
-        <v>712.019119383956</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q9" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T9" t="n">
-        <v>934.7112791079849</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U9" t="n">
-        <v>706.487660844374</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V9" t="n">
-        <v>471.3355526126313</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W9" t="n">
-        <v>227.8867759685313</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="X9" t="n">
-        <v>20.03527576299844</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="Y9" t="n">
-        <v>20.03527576299844</v>
+        <v>92.68647758675968</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L10" t="n">
-        <v>46.5952681179257</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M10" t="n">
-        <v>85.78330631014788</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N10" t="n">
-        <v>129.4741569655842</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O10" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="W10" t="n">
-        <v>19.28114311021272</v>
+        <v>138.062864280609</v>
       </c>
       <c r="X10" t="n">
-        <v>19.28114311021272</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>48.90696048418764</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>559.1338160830064</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="C11" t="n">
-        <v>559.1338160830064</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="D11" t="n">
-        <v>559.1338160830064</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="E11" t="n">
-        <v>518.2486856454962</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F11" t="n">
-        <v>274.7999090013961</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G11" t="n">
-        <v>31.35113235729608</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H11" t="n">
-        <v>31.35113235729608</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I11" t="n">
-        <v>31.35113235729608</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J11" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K11" t="n">
-        <v>122.2961490211351</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L11" t="n">
-        <v>302.3720006057937</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M11" t="n">
-        <v>519.3476278686978</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="N11" t="n">
-        <v>725.2021500759372</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="O11" t="n">
-        <v>874.3971002185853</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="P11" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q11" t="n">
-        <v>953.9655401424092</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="R11" t="n">
-        <v>802.5825927271064</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="S11" t="n">
-        <v>802.5825927271064</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="T11" t="n">
-        <v>802.5825927271064</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="U11" t="n">
-        <v>802.5825927271064</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="V11" t="n">
-        <v>802.5825927271064</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="W11" t="n">
-        <v>802.5825927271064</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="X11" t="n">
-        <v>802.5825927271064</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="Y11" t="n">
-        <v>802.5825927271064</v>
+        <v>48.10852568854899</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>384.2867411876791</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="C12" t="n">
-        <v>384.2867411876791</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="D12" t="n">
-        <v>384.2867411876791</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="E12" t="n">
-        <v>384.2867411876791</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="F12" t="n">
-        <v>272.1352367728036</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G12" t="n">
-        <v>133.4044113554191</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H12" t="n">
-        <v>20.03527576299844</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I12" t="n">
-        <v>20.03527576299844</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J12" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K12" t="n">
-        <v>144.6387031680501</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L12" t="n">
-        <v>144.6387031680501</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M12" t="n">
-        <v>234.810827406191</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="N12" t="n">
-        <v>473.4149733950735</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="O12" t="n">
-        <v>712.019119383956</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="P12" t="n">
-        <v>894.6625969973069</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="Q12" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R12" t="n">
-        <v>862.8876260635219</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S12" t="n">
-        <v>862.8876260635219</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T12" t="n">
-        <v>862.8876260635219</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U12" t="n">
-        <v>862.8876260635219</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="V12" t="n">
-        <v>627.7355178317791</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="W12" t="n">
-        <v>384.2867411876791</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="X12" t="n">
-        <v>384.2867411876791</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="Y12" t="n">
-        <v>384.2867411876791</v>
+        <v>48.10852568854899</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>19.28114311021272</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="C13" t="n">
-        <v>19.28114311021272</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="D13" t="n">
-        <v>19.28114311021272</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="E13" t="n">
-        <v>19.28114311021272</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="F13" t="n">
-        <v>19.28114311021272</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="G13" t="n">
-        <v>19.28114311021272</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="H13" t="n">
-        <v>19.28114311021272</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="I13" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J13" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K13" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L13" t="n">
-        <v>46.5952681179257</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M13" t="n">
-        <v>85.78330631014788</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N13" t="n">
-        <v>129.4741569655842</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O13" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P13" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q13" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R13" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S13" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="T13" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="U13" t="n">
-        <v>19.28114311021272</v>
+        <v>138.062864280609</v>
       </c>
       <c r="V13" t="n">
-        <v>19.28114311021272</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="W13" t="n">
-        <v>19.28114311021272</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="X13" t="n">
-        <v>19.28114311021272</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="Y13" t="n">
-        <v>19.28114311021272</v>
+        <v>48.10852568854899</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>274.7999090013961</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="C14" t="n">
-        <v>274.7999090013961</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="D14" t="n">
-        <v>274.7999090013961</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="E14" t="n">
-        <v>274.7999090013961</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="F14" t="n">
-        <v>31.35113235729608</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="G14" t="n">
-        <v>31.35113235729608</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="H14" t="n">
-        <v>31.35113235729608</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I14" t="n">
-        <v>31.35113235729608</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J14" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K14" t="n">
-        <v>122.2961490211351</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L14" t="n">
-        <v>302.3720006057937</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="M14" t="n">
-        <v>519.3476278686978</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="N14" t="n">
-        <v>725.2021500759372</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="O14" t="n">
-        <v>874.3971002185853</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P14" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q14" t="n">
-        <v>953.9655401424092</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R14" t="n">
-        <v>953.9655401424092</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S14" t="n">
-        <v>953.9655401424092</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T14" t="n">
-        <v>953.9655401424092</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U14" t="n">
-        <v>761.6974622895962</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="V14" t="n">
-        <v>518.2486856454962</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="W14" t="n">
-        <v>274.7999090013961</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="X14" t="n">
-        <v>274.7999090013961</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="Y14" t="n">
-        <v>274.7999090013961</v>
+        <v>92.68647758675968</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>619.4388494194218</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="C15" t="n">
-        <v>566.8500717543842</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D15" t="n">
-        <v>417.9156620931329</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E15" t="n">
-        <v>417.9156620931329</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F15" t="n">
-        <v>271.3811041200179</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G15" t="n">
-        <v>132.6502787026334</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H15" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I15" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J15" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K15" t="n">
-        <v>144.6387031680501</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L15" t="n">
-        <v>374.6018090363993</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="M15" t="n">
-        <v>486.8488635328713</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="N15" t="n">
-        <v>725.4530095217538</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="O15" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P15" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q15" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R15" t="n">
-        <v>862.8876260635219</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="S15" t="n">
-        <v>862.8876260635219</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="T15" t="n">
-        <v>862.8876260635219</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="U15" t="n">
-        <v>862.8876260635219</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="V15" t="n">
-        <v>862.8876260635219</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="W15" t="n">
-        <v>619.4388494194218</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="X15" t="n">
-        <v>619.4388494194218</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="Y15" t="n">
-        <v>619.4388494194218</v>
+        <v>48.10852568854899</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="C16" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="D16" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="E16" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="F16" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="G16" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="H16" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="I16" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J16" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K16" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L16" t="n">
-        <v>46.5952681179257</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M16" t="n">
-        <v>85.78330631014788</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N16" t="n">
-        <v>129.4741569655842</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O16" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P16" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q16" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R16" t="n">
-        <v>19.28114311021272</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="S16" t="n">
-        <v>19.28114311021272</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="T16" t="n">
-        <v>19.28114311021272</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="U16" t="n">
-        <v>19.28114311021272</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="V16" t="n">
-        <v>19.28114311021272</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="W16" t="n">
-        <v>19.28114311021272</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="X16" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="Y16" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
     </row>
     <row r="17">
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>122.6530896684844</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C17" t="n">
-        <v>122.6530896684844</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D17" t="n">
-        <v>122.6530896684844</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E17" t="n">
-        <v>122.6530896684844</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F17" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G17" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5539,28 +5539,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S17" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T17" t="n">
-        <v>366.1018663125844</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U17" t="n">
-        <v>366.1018663125844</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V17" t="n">
-        <v>366.1018663125844</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W17" t="n">
-        <v>366.1018663125844</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X17" t="n">
-        <v>366.1018663125844</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y17" t="n">
-        <v>366.1018663125844</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="18">
@@ -5570,28 +5570,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>327.2640844659515</v>
+        <v>486.820788837921</v>
       </c>
       <c r="C18" t="n">
-        <v>327.2640844659515</v>
+        <v>312.367759556794</v>
       </c>
       <c r="D18" t="n">
-        <v>327.2640844659515</v>
+        <v>312.367759556794</v>
       </c>
       <c r="E18" t="n">
-        <v>279.9389693285341</v>
+        <v>153.1303045513385</v>
       </c>
       <c r="F18" t="n">
-        <v>133.4044113554191</v>
+        <v>153.1303045513385</v>
       </c>
       <c r="G18" t="n">
-        <v>133.4044113554191</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
@@ -5618,28 +5618,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T18" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U18" t="n">
-        <v>562.4161926976942</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V18" t="n">
-        <v>327.2640844659515</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W18" t="n">
-        <v>327.2640844659515</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X18" t="n">
-        <v>327.2640844659515</v>
+        <v>655.0361258579891</v>
       </c>
       <c r="Y18" t="n">
-        <v>327.2640844659515</v>
+        <v>655.0361258579891</v>
       </c>
     </row>
     <row r="19">
@@ -5700,10 +5700,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
         <v>19.28114311021272</v>
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>506.1786963984129</v>
+        <v>495.259035872464</v>
       </c>
       <c r="C20" t="n">
-        <v>262.7299197543128</v>
+        <v>251.810259228364</v>
       </c>
       <c r="D20" t="n">
         <v>19.28114311021272</v>
@@ -5773,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T20" t="n">
-        <v>802.5825927271064</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U20" t="n">
-        <v>802.5825927271064</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="V20" t="n">
-        <v>749.627473042513</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="W20" t="n">
-        <v>749.627473042513</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="X20" t="n">
-        <v>506.1786963984129</v>
+        <v>495.259035872464</v>
       </c>
       <c r="Y20" t="n">
-        <v>506.1786963984129</v>
+        <v>495.259035872464</v>
       </c>
     </row>
     <row r="21">
@@ -5807,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>257.2326523711826</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="C21" t="n">
-        <v>257.2326523711826</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="D21" t="n">
-        <v>257.2326523711826</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="E21" t="n">
-        <v>257.2326523711826</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="F21" t="n">
-        <v>257.2326523711826</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G21" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
@@ -5837,46 +5837,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M21" t="n">
-        <v>374.6018090363993</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N21" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O21" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U21" t="n">
-        <v>735.8335372470253</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V21" t="n">
-        <v>500.6814290152826</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W21" t="n">
-        <v>257.2326523711826</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="X21" t="n">
-        <v>257.2326523711826</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="Y21" t="n">
-        <v>257.2326523711826</v>
+        <v>384.2867411876791</v>
       </c>
     </row>
     <row r="22">
@@ -5886,7 +5886,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C22" t="n">
         <v>19.28114311021272</v>
@@ -5943,19 +5943,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5971,16 +5971,16 @@
         <v>506.1786963984129</v>
       </c>
       <c r="D23" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E23" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F23" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
         <v>19.28114311021272</v>
@@ -6010,22 +6010,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U23" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V23" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W23" t="n">
         <v>506.1786963984129</v>
@@ -6044,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>19.28114311021272</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="C24" t="n">
-        <v>19.28114311021272</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="D24" t="n">
-        <v>19.28114311021272</v>
+        <v>470.5044397581705</v>
       </c>
       <c r="E24" t="n">
-        <v>19.28114311021272</v>
+        <v>418.6697947459187</v>
       </c>
       <c r="F24" t="n">
-        <v>19.28114311021272</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G24" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
@@ -6080,13 +6080,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="N24" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O24" t="n">
-        <v>712.019119383956</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6101,19 +6101,19 @@
         <v>862.8876260635219</v>
       </c>
       <c r="U24" t="n">
-        <v>634.6640077999109</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V24" t="n">
-        <v>399.5118995681682</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W24" t="n">
-        <v>156.0631229240681</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="X24" t="n">
-        <v>19.28114311021272</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="Y24" t="n">
-        <v>19.28114311021272</v>
+        <v>619.4388494194218</v>
       </c>
     </row>
     <row r="25">
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>518.2486856454962</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C26" t="n">
-        <v>518.2486856454962</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D26" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E26" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F26" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6250,28 +6250,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S26" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T26" t="n">
-        <v>591.4512093066566</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U26" t="n">
-        <v>591.4512093066566</v>
+        <v>485.167420504237</v>
       </c>
       <c r="V26" t="n">
-        <v>518.2486856454962</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W26" t="n">
-        <v>518.2486856454962</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X26" t="n">
-        <v>518.2486856454962</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y26" t="n">
-        <v>518.2486856454962</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="27">
@@ -6281,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>20.03527576299844</v>
+        <v>473.9875657500345</v>
       </c>
       <c r="C27" t="n">
-        <v>20.03527576299844</v>
+        <v>473.9875657500345</v>
       </c>
       <c r="D27" t="n">
-        <v>20.03527576299844</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="E27" t="n">
-        <v>20.03527576299844</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
@@ -6314,43 +6314,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>374.6018090363993</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N27" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O27" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>964.0571555106362</v>
+        <v>890.8536869434656</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>717.4363423941345</v>
       </c>
       <c r="T27" t="n">
-        <v>964.0571555106362</v>
+        <v>717.4363423941345</v>
       </c>
       <c r="U27" t="n">
-        <v>735.8335372470253</v>
+        <v>717.4363423941345</v>
       </c>
       <c r="V27" t="n">
-        <v>500.6814290152826</v>
+        <v>717.4363423941345</v>
       </c>
       <c r="W27" t="n">
-        <v>257.2326523711826</v>
+        <v>473.9875657500345</v>
       </c>
       <c r="X27" t="n">
-        <v>49.38115216564972</v>
+        <v>473.9875657500345</v>
       </c>
       <c r="Y27" t="n">
-        <v>20.03527576299844</v>
+        <v>473.9875657500345</v>
       </c>
     </row>
     <row r="28">
@@ -6408,19 +6408,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
         <v>19.28114311021272</v>
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>274.7999090013961</v>
+        <v>495.259035872464</v>
       </c>
       <c r="C29" t="n">
-        <v>274.7999090013961</v>
+        <v>495.259035872464</v>
       </c>
       <c r="D29" t="n">
-        <v>274.7999090013961</v>
+        <v>251.810259228364</v>
       </c>
       <c r="E29" t="n">
-        <v>274.7999090013961</v>
+        <v>251.810259228364</v>
       </c>
       <c r="F29" t="n">
-        <v>274.7999090013961</v>
+        <v>251.810259228364</v>
       </c>
       <c r="G29" t="n">
-        <v>31.35113235729608</v>
+        <v>251.810259228364</v>
       </c>
       <c r="H29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6484,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>953.9655401424092</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U29" t="n">
-        <v>953.9655401424092</v>
+        <v>495.259035872464</v>
       </c>
       <c r="V29" t="n">
-        <v>761.6974622895962</v>
+        <v>495.259035872464</v>
       </c>
       <c r="W29" t="n">
-        <v>518.2486856454962</v>
+        <v>495.259035872464</v>
       </c>
       <c r="X29" t="n">
-        <v>274.7999090013961</v>
+        <v>495.259035872464</v>
       </c>
       <c r="Y29" t="n">
-        <v>274.7999090013961</v>
+        <v>495.259035872464</v>
       </c>
     </row>
     <row r="30">
@@ -6518,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>194.4883050441255</v>
+        <v>446.0215048700907</v>
       </c>
       <c r="C30" t="n">
-        <v>20.03527576299844</v>
+        <v>271.5684755889637</v>
       </c>
       <c r="D30" t="n">
-        <v>20.03527576299844</v>
+        <v>271.5684755889637</v>
       </c>
       <c r="E30" t="n">
-        <v>20.03527576299844</v>
+        <v>271.5684755889637</v>
       </c>
       <c r="F30" t="n">
-        <v>20.03527576299844</v>
+        <v>125.0339176158487</v>
       </c>
       <c r="G30" t="n">
         <v>20.03527576299844</v>
@@ -6557,37 +6557,37 @@
         <v>613.2059550252818</v>
       </c>
       <c r="O30" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P30" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S30" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T30" t="n">
-        <v>761.8705608694022</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U30" t="n">
-        <v>533.6469426057913</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V30" t="n">
-        <v>402.2486038090794</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W30" t="n">
-        <v>402.2486038090794</v>
+        <v>446.0215048700907</v>
       </c>
       <c r="X30" t="n">
-        <v>402.2486038090794</v>
+        <v>446.0215048700907</v>
       </c>
       <c r="Y30" t="n">
-        <v>194.4883050441255</v>
+        <v>446.0215048700907</v>
       </c>
     </row>
     <row r="31">
@@ -6648,13 +6648,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V31" t="n">
         <v>19.28114311021272</v>
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>122.6530896684844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C32" t="n">
-        <v>122.6530896684844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D32" t="n">
-        <v>122.6530896684844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E32" t="n">
-        <v>122.6530896684844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F32" t="n">
-        <v>122.6530896684844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G32" t="n">
         <v>19.28114311021272</v>
@@ -6721,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S32" t="n">
-        <v>591.4512093066566</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T32" t="n">
-        <v>366.1018663125844</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U32" t="n">
-        <v>122.6530896684844</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="V32" t="n">
-        <v>122.6530896684844</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="W32" t="n">
-        <v>122.6530896684844</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="X32" t="n">
-        <v>122.6530896684844</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="Y32" t="n">
-        <v>122.6530896684844</v>
+        <v>132.7447050367114</v>
       </c>
     </row>
     <row r="33">
@@ -6755,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>20.03527576299844</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="C33" t="n">
-        <v>20.03527576299844</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="D33" t="n">
-        <v>20.03527576299844</v>
+        <v>235.3523315264278</v>
       </c>
       <c r="E33" t="n">
-        <v>20.03527576299844</v>
+        <v>235.3523315264278</v>
       </c>
       <c r="F33" t="n">
-        <v>20.03527576299844</v>
+        <v>235.3523315264278</v>
       </c>
       <c r="G33" t="n">
-        <v>20.03527576299844</v>
+        <v>96.62150610904331</v>
       </c>
       <c r="H33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
@@ -6791,10 +6791,10 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N33" t="n">
-        <v>613.2059550252818</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O33" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P33" t="n">
         <v>964.0571555106362</v>
@@ -6803,28 +6803,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U33" t="n">
-        <v>735.8335372470253</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V33" t="n">
-        <v>679.0958513775852</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W33" t="n">
-        <v>435.6470747334852</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="X33" t="n">
-        <v>227.7955745279523</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="Y33" t="n">
-        <v>20.03527576299844</v>
+        <v>384.2867411876791</v>
       </c>
     </row>
     <row r="34">
@@ -6894,7 +6894,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
         <v>19.28114311021272</v>
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>720.6083788665362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="C35" t="n">
-        <v>477.1596022224361</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="D35" t="n">
-        <v>477.1596022224361</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="E35" t="n">
-        <v>477.1596022224361</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="F35" t="n">
-        <v>477.1596022224361</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="G35" t="n">
-        <v>233.7108255783361</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="H35" t="n">
         <v>19.28114311021272</v>
@@ -6958,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U35" t="n">
-        <v>720.6083788665362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V35" t="n">
-        <v>720.6083788665362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="W35" t="n">
-        <v>720.6083788665362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="X35" t="n">
-        <v>720.6083788665362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="Y35" t="n">
-        <v>720.6083788665362</v>
+        <v>366.1018663125844</v>
       </c>
     </row>
     <row r="36">
@@ -6992,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>19.28114311021272</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="C36" t="n">
-        <v>19.28114311021272</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="D36" t="n">
-        <v>19.28114311021272</v>
+        <v>439.5188066588198</v>
       </c>
       <c r="E36" t="n">
-        <v>19.28114311021272</v>
+        <v>280.2813516533643</v>
       </c>
       <c r="F36" t="n">
-        <v>19.28114311021272</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G36" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H36" t="n">
         <v>19.28114311021272</v>
@@ -7025,13 +7025,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N36" t="n">
-        <v>712.019119383956</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O36" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P36" t="n">
         <v>894.6625969973069</v>
@@ -7043,25 +7043,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T36" t="n">
-        <v>933.8659450146204</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U36" t="n">
-        <v>705.6423267510095</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V36" t="n">
-        <v>470.4902185192667</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="W36" t="n">
-        <v>227.0414418751666</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="X36" t="n">
-        <v>227.0414418751666</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="Y36" t="n">
-        <v>19.28114311021272</v>
+        <v>588.4532163200711</v>
       </c>
     </row>
     <row r="37">
@@ -7071,13 +7071,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E37" t="n">
         <v>19.28114311021272</v>
@@ -7134,13 +7134,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>577.2332497330343</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C38" t="n">
-        <v>577.2332497330343</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D38" t="n">
-        <v>577.2332497330343</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E38" t="n">
-        <v>577.2332497330343</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F38" t="n">
-        <v>333.7844730889342</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G38" t="n">
-        <v>90.33569644483418</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H38" t="n">
         <v>19.28114311021272</v>
@@ -7195,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
-        <v>577.2332497330343</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U38" t="n">
-        <v>577.2332497330343</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V38" t="n">
-        <v>577.2332497330343</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W38" t="n">
-        <v>577.2332497330343</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X38" t="n">
-        <v>577.2332497330343</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y38" t="n">
-        <v>577.2332497330343</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="39">
@@ -7229,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
@@ -7262,16 +7262,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>374.6018090363993</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N39" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O39" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7280,25 +7280,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>964.0571555106362</v>
+        <v>892.6037630117544</v>
       </c>
       <c r="T39" t="n">
-        <v>964.0571555106362</v>
+        <v>690.4171683705204</v>
       </c>
       <c r="U39" t="n">
-        <v>914.2479596093278</v>
+        <v>462.1935501069094</v>
       </c>
       <c r="V39" t="n">
-        <v>679.0958513775852</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="W39" t="n">
-        <v>435.6470747334852</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="X39" t="n">
-        <v>227.7955745279523</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="40">
@@ -7359,25 +7359,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="41">
@@ -7390,16 +7390,16 @@
         <v>262.7299197543128</v>
       </c>
       <c r="C41" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D41" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E41" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F41" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G41" t="n">
         <v>19.28114311021272</v>
@@ -7432,25 +7432,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R41" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S41" t="n">
-        <v>742.8341567219593</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T41" t="n">
-        <v>517.4848137278872</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U41" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V41" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W41" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X41" t="n">
         <v>262.7299197543128</v>
@@ -7466,28 +7466,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>178.0434248788474</v>
+        <v>726.8416594126254</v>
       </c>
       <c r="C42" t="n">
-        <v>178.0434248788474</v>
+        <v>726.8416594126254</v>
       </c>
       <c r="D42" t="n">
-        <v>178.0434248788474</v>
+        <v>577.9072497513741</v>
       </c>
       <c r="E42" t="n">
-        <v>19.28114311021272</v>
+        <v>418.6697947459187</v>
       </c>
       <c r="F42" t="n">
-        <v>19.28114311021272</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G42" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J42" t="n">
         <v>19.28114311021272</v>
@@ -7499,43 +7499,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M42" t="n">
-        <v>473.4149733950735</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N42" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O42" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P42" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q42" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S42" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T42" t="n">
-        <v>761.8705608694022</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U42" t="n">
-        <v>761.8705608694022</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V42" t="n">
-        <v>761.8705608694022</v>
+        <v>726.8416594126254</v>
       </c>
       <c r="W42" t="n">
-        <v>761.8705608694022</v>
+        <v>726.8416594126254</v>
       </c>
       <c r="X42" t="n">
-        <v>554.0190606638694</v>
+        <v>726.8416594126254</v>
       </c>
       <c r="Y42" t="n">
-        <v>346.2587618989155</v>
+        <v>726.8416594126254</v>
       </c>
     </row>
     <row r="43">
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>376.1934816808115</v>
+        <v>495.259035872464</v>
       </c>
       <c r="C44" t="n">
-        <v>376.1934816808115</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D44" t="n">
-        <v>376.1934816808115</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E44" t="n">
-        <v>376.1934816808115</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F44" t="n">
-        <v>376.1934816808115</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G44" t="n">
-        <v>132.7447050367114</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H44" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I44" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J44" t="n">
         <v>19.28114311021272</v>
@@ -7672,28 +7672,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R44" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S44" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T44" t="n">
-        <v>376.1934816808115</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U44" t="n">
-        <v>376.1934816808115</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="V44" t="n">
-        <v>376.1934816808115</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="W44" t="n">
-        <v>376.1934816808115</v>
+        <v>495.259035872464</v>
       </c>
       <c r="X44" t="n">
-        <v>376.1934816808115</v>
+        <v>495.259035872464</v>
       </c>
       <c r="Y44" t="n">
-        <v>376.1934816808115</v>
+        <v>495.259035872464</v>
       </c>
     </row>
     <row r="45">
@@ -7703,46 +7703,46 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>19.28114311021272</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="C45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M45" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N45" t="n">
-        <v>542.809531908403</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O45" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P45" t="n">
         <v>964.0571555106362</v>
@@ -7757,22 +7757,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T45" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U45" t="n">
-        <v>913.4938269565423</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V45" t="n">
-        <v>678.3417187247995</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W45" t="n">
-        <v>434.8929420806995</v>
+        <v>610.1001040146123</v>
       </c>
       <c r="X45" t="n">
-        <v>227.0414418751666</v>
+        <v>402.2486038090794</v>
       </c>
       <c r="Y45" t="n">
-        <v>19.28114311021272</v>
+        <v>194.4883050441255</v>
       </c>
     </row>
     <row r="46">
@@ -7830,19 +7830,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W46" t="n">
         <v>19.28114311021272</v>
@@ -7981,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711648</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504504</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M2" t="n">
-        <v>449.5135334928325</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N2" t="n">
-        <v>437.3469244119842</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O2" t="n">
-        <v>380.8001812627454</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P2" t="n">
-        <v>321.7987081714826</v>
+        <v>273.5820500585697</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8060,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>180.1904932776592</v>
       </c>
       <c r="L3" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>233.2169876979182</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>186.728416823673</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8218,22 +8218,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>262.4389053482807</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M5" t="n">
-        <v>449.5135334928325</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N5" t="n">
-        <v>437.3469244119842</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O5" t="n">
-        <v>380.8001812627454</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8297,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>181.9736113535876</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>186.2662063012469</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>184.9452987477446</v>
       </c>
       <c r="P6" t="n">
-        <v>177.2597568922521</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8455,22 +8455,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711648</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504504</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M8" t="n">
-        <v>449.5135334928325</v>
+        <v>272.6952875305729</v>
       </c>
       <c r="N8" t="n">
-        <v>437.3469244119842</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8534,25 +8534,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>181.9736113535876</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>182.6865521591028</v>
       </c>
       <c r="M9" t="n">
-        <v>241.9453110519923</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>175.4738844625619</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>176.3234617176304</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8692,22 +8692,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>273.5820500585697</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8771,25 +8771,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>181.9736113535876</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>182.6865521591028</v>
       </c>
       <c r="M12" t="n">
-        <v>233.2169876979182</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>182.3308283893217</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8929,22 +8929,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>278.1154692732874</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9008,19 +9008,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>181.9736113535876</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>180.9034340831744</v>
       </c>
       <c r="M15" t="n">
-        <v>255.5148970497678</v>
+        <v>186.2662063012469</v>
       </c>
       <c r="N15" t="n">
-        <v>372.3560009609923</v>
+        <v>175.4738844625619</v>
       </c>
       <c r="O15" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -9485,13 +9485,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>231.1529892133073</v>
+        <v>292.5201795090609</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9728,16 +9728,16 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>231.1529892133073</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>247.3552705420797</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9962,19 +9962,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>231.1529892133073</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10205,13 +10205,13 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>312.5030352242461</v>
+        <v>242.4075215744184</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10439,13 +10439,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>312.5030352242461</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -10591,7 +10591,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
         <v>449.5135334928325</v>
@@ -10673,16 +10673,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>174.6270615612551</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10910,10 +10910,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N39" t="n">
-        <v>231.1529892133073</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11147,10 +11147,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>241.9453110519923</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O42" t="n">
         <v>383.6105333221035</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11378,22 +11378,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>197.6503338623806</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -22555,22 +22555,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>337.7981976930332</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>362.7438733624829</v>
       </c>
       <c r="G2" t="n">
-        <v>415.302737515135</v>
+        <v>371.1705651359065</v>
       </c>
       <c r="H2" t="n">
-        <v>339.4748021157671</v>
+        <v>300.6031846841426</v>
       </c>
       <c r="I2" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22591,22 +22591,22 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>237.3633207320585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -22631,16 +22631,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>65.6186746079696</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>118.7734630237764</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>100.9370400141553</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
@@ -22649,7 +22649,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22673,10 +22673,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>56.02566177341454</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
@@ -22688,7 +22688,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>10.68069428326055</v>
+        <v>207.562810781691</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -22704,7 +22704,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>179.041529734255</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -22755,10 +22755,10 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>224.0165980369723</v>
+        <v>179.8844256577437</v>
       </c>
       <c r="T4" t="n">
-        <v>227.9455894282815</v>
+        <v>183.8134170490529</v>
       </c>
       <c r="U4" t="n">
         <v>286.3190293564909</v>
@@ -22767,13 +22767,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>174.4524809728662</v>
       </c>
     </row>
     <row r="5">
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22792,7 +22792,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -22807,7 +22807,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22831,16 +22831,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>105.7369455619211</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>180.1391513691656</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>178.9636771849028</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>207.2134805286079</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22849,10 +22849,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>329.2548215453339</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22868,13 +22868,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>108.5734481330142</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>100.9370400141553</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
@@ -22886,7 +22886,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22910,7 +22910,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>43.98752514189738</v>
+        <v>56.02566177341454</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -22919,19 +22919,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>10.68069428326055</v>
+        <v>207.562810781691</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22992,10 +22992,10 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>227.9455894282815</v>
+        <v>183.8134170490529</v>
       </c>
       <c r="U7" t="n">
         <v>286.3190293564909</v>
@@ -23004,13 +23004,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>242.3908259573624</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>181.5774830098086</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>217.7942029044125</v>
       </c>
     </row>
     <row r="8">
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>141.7195527858215</v>
+        <v>343.862224231856</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23029,7 +23029,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>337.7981976930332</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -23044,7 +23044,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23065,19 +23065,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>105.7369455619211</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>178.9636771849028</v>
       </c>
       <c r="U8" t="n">
-        <v>192.9509344611737</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23089,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23099,13 +23099,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>122.4010112706387</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>103.3128931854102</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -23123,7 +23123,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23153,22 +23153,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>171.1123110561968</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>166.9013677718529</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>161.5505233980758</v>
       </c>
     </row>
     <row r="10">
@@ -23178,10 +23178,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>135.6998078027087</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>166.4563706509456</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -23241,13 +23241,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>181.5774830098086</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>174.4524809728662</v>
       </c>
     </row>
     <row r="11">
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23266,13 +23266,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>341.4540909391266</v>
+        <v>337.7981976930332</v>
       </c>
       <c r="F11" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
         <v>339.4748021157671</v>
@@ -23281,7 +23281,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23305,19 +23305,19 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>164.8878972070167</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>178.9636771849028</v>
       </c>
       <c r="U11" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>298.8713402530552</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23348,19 +23348,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>34.03922302265721</v>
+        <v>100.9370400141553</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23384,7 +23384,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
         <v>171.6831711038378</v>
@@ -23393,13 +23393,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>181.8092097017462</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>188.6684147701967</v>
       </c>
       <c r="W12" t="n">
-        <v>10.68069428326055</v>
+        <v>212.8233657292951</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -23436,7 +23436,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>155.4504749272583</v>
+        <v>111.3183025480297</v>
       </c>
       <c r="J13" t="n">
         <v>93.35918011667277</v>
@@ -23472,19 +23472,19 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U13" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>208.0054709445994</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>181.5774830098086</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>217.7942029044125</v>
       </c>
     </row>
     <row r="14">
@@ -23506,19 +23506,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>415.302737515135</v>
+        <v>371.1705651359065</v>
       </c>
       <c r="H14" t="n">
-        <v>339.4748021157671</v>
+        <v>295.3426297365386</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23539,7 +23539,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
         <v>149.8691179411497</v>
@@ -23551,13 +23551,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>61.00025583355162</v>
+        <v>212.474035476212</v>
       </c>
       <c r="V14" t="n">
-        <v>86.73796959247585</v>
+        <v>283.6200860909063</v>
       </c>
       <c r="W14" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -23576,22 +23576,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>120.6456090999285</v>
+        <v>128.5763266090871</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
         <v>89.39663285141508</v>
@@ -23621,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>56.02566177341454</v>
       </c>
       <c r="S15" t="n">
         <v>171.6831711038378</v>
@@ -23630,13 +23630,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>181.8092097017462</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>10.68069428326055</v>
+        <v>212.8233657292951</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -23673,7 +23673,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>155.4504749272583</v>
+        <v>154.660024479576</v>
       </c>
       <c r="J16" t="n">
         <v>93.35918011667277</v>
@@ -23700,7 +23700,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>44.10642379180146</v>
+        <v>133.1612189979409</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23709,7 +23709,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U16" t="n">
-        <v>286.3190293564909</v>
+        <v>242.1868569772623</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23718,7 +23718,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>181.5774830098086</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -23743,19 +23743,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>316.4871080036351</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G17" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I17" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23779,13 +23779,13 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>20.80116313523413</v>
       </c>
       <c r="U17" t="n">
         <v>251.3456529078365</v>
@@ -23794,7 +23794,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -23810,22 +23810,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>110.7932164693578</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>117.0682915729926</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -23834,7 +23834,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23858,25 +23858,25 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -23940,13 +23940,13 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23974,7 +23974,7 @@
         <v>124.2586028933485</v>
       </c>
       <c r="D20" t="n">
-        <v>113.6687527430239</v>
+        <v>124.4792166637132</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -24013,22 +24013,22 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>275.3266899823874</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24056,22 +24056,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>78.70226791530382</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>14.75355855760483</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24095,7 +24095,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
@@ -24104,7 +24104,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>34.05985351325981</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24183,7 +24183,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U22" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24211,7 +24211,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24223,7 +24223,7 @@
         <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
@@ -24250,7 +24250,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
@@ -24259,16 +24259,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U23" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>125.4575720412377</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W23" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -24290,25 +24290,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>106.3287818932716</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24341,16 +24341,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>70.35882518776063</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -24442,13 +24442,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -24457,7 +24457,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
@@ -24466,7 +24466,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24490,19 +24490,19 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V26" t="n">
-        <v>255.2817600455861</v>
+        <v>107.53913272771</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24527,13 +24527,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>137.3435171632106</v>
@@ -24545,7 +24545,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24569,28 +24569,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>27.68640027114424</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>176.6302781386796</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24648,7 +24648,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
         <v>224.0165980369723</v>
@@ -24663,7 +24663,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24685,7 +24685,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24694,16 +24694,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>339.4748021157671</v>
+        <v>109.2709771587974</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24724,7 +24724,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
@@ -24733,19 +24733,19 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V29" t="n">
-        <v>137.40686139585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24770,10 +24770,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>33.39486172888893</v>
       </c>
       <c r="H30" t="n">
         <v>112.2354442364965</v>
@@ -24806,28 +24806,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>102.7162317406805</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24888,7 +24888,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T31" t="n">
         <v>227.9455894282815</v>
@@ -24897,7 +24897,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V31" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>270.4049153562469</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -24931,7 +24931,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>312.9645104224461</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
         <v>339.4748021157671</v>
@@ -24961,7 +24961,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -24973,10 +24973,10 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -25001,7 +25001,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
@@ -25010,16 +25010,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>35.66848486765419</v>
       </c>
       <c r="I33" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25043,7 +25043,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
@@ -25052,19 +25052,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>176.6302781386795</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25134,10 +25134,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V34" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25156,7 +25156,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -25171,7 +25171,7 @@
         <v>174.288448637476</v>
       </c>
       <c r="H35" t="n">
-        <v>127.189416472325</v>
+        <v>237.1365750230782</v>
       </c>
       <c r="I35" t="n">
         <v>210.4758895704059</v>
@@ -25198,19 +25198,19 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25238,19 +25238,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>136.2579673353709</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>89.39663285141508</v>
@@ -25283,25 +25283,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>170.2754303037659</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25320,7 +25320,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120115</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25374,7 +25374,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25402,13 +25402,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
-        <v>269.1307943144919</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
@@ -25435,10 +25435,10 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
         <v>209.0200695862453</v>
@@ -25447,10 +25447,10 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.3456529078365</v>
+        <v>21.14182795086677</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -25493,7 +25493,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25520,22 +25520,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>100.9443125299448</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>176.6302781386795</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25599,7 +25599,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T40" t="n">
         <v>227.9455894282815</v>
@@ -25630,7 +25630,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25642,7 +25642,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
@@ -25672,10 +25672,10 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -25684,7 +25684,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>240.1525967516569</v>
+        <v>139.0167266006028</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -25693,7 +25693,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -25706,31 +25706,31 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0.4704215044526165</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25754,28 +25754,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>98.11508016503774</v>
       </c>
       <c r="W42" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25867,10 +25867,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>135.0690668140378</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -25879,16 +25879,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>239.095165163146</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25912,10 +25912,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25927,7 +25927,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -25946,7 +25946,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
@@ -25967,7 +25967,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25997,16 +25997,16 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>175.8836868124218</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>10.68069428326055</v>
+        <v>101.4422308746776</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R46" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S46" t="n">
         <v>224.0165980369723</v>
@@ -26085,7 +26085,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>498482.0175939975</v>
+        <v>358659.0160535966</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>498482.0175939975</v>
+        <v>358659.0160535966</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>498482.0175939975</v>
+        <v>358659.0160535965</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>498482.0175939975</v>
+        <v>358659.0160535965</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>498482.0175939975</v>
+        <v>358659.0160535966</v>
       </c>
     </row>
     <row r="7">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>498482.0175939976</v>
+        <v>498482.0175939975</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>498482.0175939973</v>
+        <v>498482.0175939974</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>498482.0175939976</v>
+        <v>498482.0175939973</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>498482.0175939974</v>
+        <v>498482.0175939976</v>
       </c>
     </row>
   </sheetData>
@@ -26313,34 +26313,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>83080.33626566621</v>
+        <v>59776.50267559937</v>
       </c>
       <c r="C2" t="n">
-        <v>83080.33626566618</v>
+        <v>59776.50267559939</v>
       </c>
       <c r="D2" t="n">
-        <v>83080.33626566621</v>
+        <v>59776.50267559939</v>
       </c>
       <c r="E2" t="n">
-        <v>83080.33626566618</v>
+        <v>59776.50267559939</v>
       </c>
       <c r="F2" t="n">
-        <v>83080.33626566618</v>
+        <v>59776.50267559939</v>
       </c>
       <c r="G2" t="n">
         <v>83080.33626566618</v>
       </c>
       <c r="H2" t="n">
+        <v>83080.33626566618</v>
+      </c>
+      <c r="I2" t="n">
         <v>83080.33626566615</v>
       </c>
-      <c r="I2" t="n">
-        <v>83080.33626566618</v>
-      </c>
       <c r="J2" t="n">
-        <v>83080.33626566618</v>
+        <v>83080.33626566621</v>
       </c>
       <c r="K2" t="n">
-        <v>83080.33626566618</v>
+        <v>83080.33626566621</v>
       </c>
       <c r="L2" t="n">
         <v>83080.33626566618</v>
@@ -26349,13 +26349,13 @@
         <v>83080.33626566621</v>
       </c>
       <c r="N2" t="n">
+        <v>83080.33626566615</v>
+      </c>
+      <c r="O2" t="n">
         <v>83080.33626566618</v>
       </c>
-      <c r="O2" t="n">
-        <v>83080.33626566621</v>
-      </c>
       <c r="P2" t="n">
-        <v>83080.33626566618</v>
+        <v>83080.33626566615</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>14789.70600424422</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>53962.43490047232</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910623</v>
+        <v>11546.91810999089</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>47379.87821746379</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.5324977039669</v>
+        <v>36.87052286425572</v>
       </c>
       <c r="C4" t="n">
-        <v>179.5324977039669</v>
+        <v>36.87052286425573</v>
       </c>
       <c r="D4" t="n">
-        <v>179.5324977039669</v>
+        <v>36.87052286425573</v>
       </c>
       <c r="E4" t="n">
-        <v>179.5324977039669</v>
+        <v>36.87052286425572</v>
       </c>
       <c r="F4" t="n">
-        <v>179.5324977039669</v>
+        <v>36.87052286425573</v>
       </c>
       <c r="G4" t="n">
         <v>179.5324977039669</v>
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>48281.26876376167</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="C5" t="n">
-        <v>48281.26876376167</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="D5" t="n">
-        <v>48281.26876376167</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="E5" t="n">
-        <v>14653.66876376167</v>
+        <v>2683.236080657098</v>
       </c>
       <c r="F5" t="n">
-        <v>14653.66876376167</v>
+        <v>2683.236080657098</v>
       </c>
       <c r="G5" t="n">
         <v>14653.66876376167</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-58367.90714738762</v>
+        <v>7184.250669929079</v>
       </c>
       <c r="C6" t="n">
-        <v>22401.52438416007</v>
+        <v>21973.95667417332</v>
       </c>
       <c r="D6" t="n">
-        <v>22401.5243841601</v>
+        <v>21973.95667417332</v>
       </c>
       <c r="E6" t="n">
-        <v>56029.12438416007</v>
+        <v>55601.55667417331</v>
       </c>
       <c r="F6" t="n">
-        <v>56029.12438416007</v>
+        <v>55601.55667417331</v>
       </c>
       <c r="G6" t="n">
-        <v>56029.12438416007</v>
+        <v>13062.89904172417</v>
       </c>
       <c r="H6" t="n">
-        <v>56029.12438416004</v>
+        <v>67025.33394219649</v>
       </c>
       <c r="I6" t="n">
-        <v>56029.12438416007</v>
+        <v>67025.33394219646</v>
       </c>
       <c r="J6" t="n">
-        <v>-7030.818214946155</v>
+        <v>55478.41583220563</v>
       </c>
       <c r="K6" t="n">
-        <v>56029.12438416007</v>
+        <v>67025.33394219652</v>
       </c>
       <c r="L6" t="n">
-        <v>56029.12438416007</v>
+        <v>67025.33394219649</v>
       </c>
       <c r="M6" t="n">
-        <v>56029.1243841601</v>
+        <v>67025.33394219652</v>
       </c>
       <c r="N6" t="n">
-        <v>56029.12438416007</v>
+        <v>67025.33394219646</v>
       </c>
       <c r="O6" t="n">
-        <v>56029.1243841601</v>
+        <v>19645.45572473271</v>
       </c>
       <c r="P6" t="n">
-        <v>56029.12438416007</v>
+        <v>67025.33394219646</v>
       </c>
     </row>
   </sheetData>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="D4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G4" t="n">
         <v>241.0142888776591</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27050,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>104.0555615261842</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L2" t="n">
-        <v>181.8947995804632</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>219.1673002655598</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N2" t="n">
-        <v>207.9338608153932</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410586</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>90.5657124162131</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>91.0829537758999</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>104.0555615261842</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="L5" t="n">
-        <v>181.8947995804632</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>219.1673002655598</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>207.9338608153932</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410586</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P5" t="n">
-        <v>90.5657124162131</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="P6" t="n">
-        <v>43.28534947792182</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35175,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>104.0555615261842</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L8" t="n">
-        <v>181.8947995804632</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M8" t="n">
-        <v>219.1673002655598</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="N8" t="n">
-        <v>207.9338608153932</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O8" t="n">
-        <v>150.7019698410586</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M9" t="n">
-        <v>99.81127712997396</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35412,22 +35412,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>104.0555615261842</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L11" t="n">
-        <v>181.8947995804632</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>219.1673002655598</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>207.9338608153932</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O11" t="n">
-        <v>150.7019698410586</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P11" t="n">
-        <v>90.5657124162131</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M12" t="n">
-        <v>91.0829537758999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35649,22 +35649,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>104.0555615261842</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L14" t="n">
-        <v>181.8947995804632</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="M14" t="n">
-        <v>219.1673002655598</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N14" t="n">
-        <v>207.9338608153932</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O14" t="n">
-        <v>150.7019698410586</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35728,19 +35728,19 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L15" t="n">
-        <v>232.285965523585</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="M15" t="n">
-        <v>113.3808631277495</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N15" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O15" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -36205,13 +36205,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>99.81127712997396</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
@@ -36220,7 +36220,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36448,16 +36448,16 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36682,19 +36682,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>99.81127712997396</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36925,13 +36925,13 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>169.9067907798016</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="P30" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37159,13 +37159,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>169.9067907798016</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37393,16 +37393,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
+        <v>43.28534947792182</v>
+      </c>
+      <c r="O36" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O36" t="n">
-        <v>0</v>
-      </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>70.09551364982758</v>
@@ -37630,10 +37630,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N39" t="n">
-        <v>99.81127712997396</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
@@ -37642,7 +37642,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37794,7 +37794,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O41" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P41" t="n">
         <v>90.5657124162131</v>
@@ -37867,10 +37867,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>99.81127712997396</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O42" t="n">
         <v>241.0142888776591</v>
@@ -37879,7 +37879,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38098,22 +38098,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O45" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
